--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1825.691866238838</v>
+        <v>1959.758132134726</v>
       </c>
       <c r="AB2" t="n">
-        <v>2497.992155228618</v>
+        <v>2681.427534813593</v>
       </c>
       <c r="AC2" t="n">
-        <v>2259.587289887607</v>
+        <v>2425.515854298164</v>
       </c>
       <c r="AD2" t="n">
-        <v>1825691.866238838</v>
+        <v>1959758.132134726</v>
       </c>
       <c r="AE2" t="n">
-        <v>2497992.155228618</v>
+        <v>2681427.534813593</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.412971299259077e-07</v>
+        <v>1.371593772647936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.5005787037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2259587.289887607</v>
+        <v>2425515.854298165</v>
       </c>
     </row>
     <row r="3">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1089.082273504567</v>
+        <v>1186.561737559421</v>
       </c>
       <c r="AB3" t="n">
-        <v>1490.130413527874</v>
+        <v>1623.506116738166</v>
       </c>
       <c r="AC3" t="n">
-        <v>1347.914458271944</v>
+        <v>1468.560971561821</v>
       </c>
       <c r="AD3" t="n">
-        <v>1089082.273504567</v>
+        <v>1186561.737559421</v>
       </c>
       <c r="AE3" t="n">
-        <v>1490130.413527875</v>
+        <v>1623506.116738166</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042227526984034e-06</v>
+        <v>1.928393795125631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.58043981481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>1347914.458271944</v>
+        <v>1468560.971561821</v>
       </c>
     </row>
     <row r="4">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>936.8270703022473</v>
+        <v>1010.000763492867</v>
       </c>
       <c r="AB4" t="n">
-        <v>1281.808127480959</v>
+        <v>1381.927602699875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1159.474158823182</v>
+        <v>1250.03837184577</v>
       </c>
       <c r="AD4" t="n">
-        <v>936827.0703022473</v>
+        <v>1010000.763492867</v>
       </c>
       <c r="AE4" t="n">
-        <v>1281808.12748096</v>
+        <v>1381927.602699875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158345695901227e-06</v>
+        <v>2.143242809034564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11921296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1159474.158823182</v>
+        <v>1250038.37184577</v>
       </c>
     </row>
     <row r="5">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>861.6524664469817</v>
+        <v>934.7408187830304</v>
       </c>
       <c r="AB5" t="n">
-        <v>1178.950918016728</v>
+        <v>1278.953626113446</v>
       </c>
       <c r="AC5" t="n">
-        <v>1066.433497069216</v>
+        <v>1156.892087059866</v>
       </c>
       <c r="AD5" t="n">
-        <v>861652.4664469818</v>
+        <v>934740.8187830304</v>
       </c>
       <c r="AE5" t="n">
-        <v>1178950.918016728</v>
+        <v>1278953.626113445</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220842584644538e-06</v>
+        <v>2.258878415796948e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1066433.497069216</v>
+        <v>1156892.087059866</v>
       </c>
     </row>
     <row r="6">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>823.6233509922009</v>
+        <v>896.7117033282495</v>
       </c>
       <c r="AB6" t="n">
-        <v>1126.917804525331</v>
+        <v>1226.920512622049</v>
       </c>
       <c r="AC6" t="n">
-        <v>1019.366350900505</v>
+        <v>1109.824940891154</v>
       </c>
       <c r="AD6" t="n">
-        <v>823623.3509922009</v>
+        <v>896711.7033282495</v>
       </c>
       <c r="AE6" t="n">
-        <v>1126917.804525331</v>
+        <v>1226920.512622049</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.260914119191719e-06</v>
+        <v>2.333021246015182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.05150462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1019366.350900505</v>
+        <v>1109824.940891154</v>
       </c>
     </row>
     <row r="7">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>785.8050242835686</v>
+        <v>858.9786279656378</v>
       </c>
       <c r="AB7" t="n">
-        <v>1075.173101495757</v>
+        <v>1175.292454245124</v>
       </c>
       <c r="AC7" t="n">
-        <v>972.5600897039271</v>
+        <v>1063.124191945289</v>
       </c>
       <c r="AD7" t="n">
-        <v>785805.0242835686</v>
+        <v>858978.6279656377</v>
       </c>
       <c r="AE7" t="n">
-        <v>1075173.101495757</v>
+        <v>1175292.454245124</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.288591312778043e-06</v>
+        <v>2.384231300438523e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.79398148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>972560.0897039272</v>
+        <v>1063124.191945289</v>
       </c>
     </row>
     <row r="8">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>771.6225616554497</v>
+        <v>844.7961653375187</v>
       </c>
       <c r="AB8" t="n">
-        <v>1055.768030441872</v>
+        <v>1155.887383191239</v>
       </c>
       <c r="AC8" t="n">
-        <v>955.0070113962369</v>
+        <v>1045.571113637598</v>
       </c>
       <c r="AD8" t="n">
-        <v>771622.5616554497</v>
+        <v>844796.1653375187</v>
       </c>
       <c r="AE8" t="n">
-        <v>1055768.030441873</v>
+        <v>1155887.38319124</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304031720585214e-06</v>
+        <v>2.412800097403348e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.65219907407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>955007.0113962368</v>
+        <v>1045571.113637598</v>
       </c>
     </row>
     <row r="9">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>754.9298420922747</v>
+        <v>828.1034457743436</v>
       </c>
       <c r="AB9" t="n">
-        <v>1032.928315104724</v>
+        <v>1133.047667854091</v>
       </c>
       <c r="AC9" t="n">
-        <v>934.3470864351241</v>
+        <v>1024.911188676485</v>
       </c>
       <c r="AD9" t="n">
-        <v>754929.8420922747</v>
+        <v>828103.4457743437</v>
       </c>
       <c r="AE9" t="n">
-        <v>1032928.315104724</v>
+        <v>1133047.667854091</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.319682201967992e-06</v>
+        <v>2.441757585483339e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>934347.086435124</v>
+        <v>1024911.188676485</v>
       </c>
     </row>
     <row r="10">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>742.6829417555798</v>
+        <v>815.6859532370567</v>
       </c>
       <c r="AB10" t="n">
-        <v>1016.171565768948</v>
+        <v>1116.057506743467</v>
       </c>
       <c r="AC10" t="n">
-        <v>919.1895777377085</v>
+        <v>1009.542544696419</v>
       </c>
       <c r="AD10" t="n">
-        <v>742682.9417555798</v>
+        <v>815685.9532370566</v>
       </c>
       <c r="AE10" t="n">
-        <v>1016171.565768948</v>
+        <v>1116057.506743467</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.331236248626419e-06</v>
+        <v>2.463135596817561e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.41493055555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>919189.5777377086</v>
+        <v>1009542.544696419</v>
       </c>
     </row>
     <row r="11">
@@ -6606,28 +6606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>729.7584077901357</v>
+        <v>802.7614192716125</v>
       </c>
       <c r="AB11" t="n">
-        <v>998.4876482072304</v>
+        <v>1098.37358918175</v>
       </c>
       <c r="AC11" t="n">
-        <v>903.1933884485475</v>
+        <v>993.5463554072579</v>
       </c>
       <c r="AD11" t="n">
-        <v>729758.4077901357</v>
+        <v>802761.4192716124</v>
       </c>
       <c r="AE11" t="n">
-        <v>998487.6482072305</v>
+        <v>1098373.58918175</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.343367997617768e-06</v>
+        <v>2.485582508718495e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.31076388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>903193.3884485475</v>
+        <v>993546.3554072579</v>
       </c>
     </row>
     <row r="12">
@@ -6712,28 +6712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>720.4587627759777</v>
+        <v>793.4617742574544</v>
       </c>
       <c r="AB12" t="n">
-        <v>985.7634636274769</v>
+        <v>1085.649404601997</v>
       </c>
       <c r="AC12" t="n">
-        <v>891.6835821865806</v>
+        <v>982.0365491452909</v>
       </c>
       <c r="AD12" t="n">
-        <v>720458.7627759777</v>
+        <v>793461.7742574544</v>
       </c>
       <c r="AE12" t="n">
-        <v>985763.4636274768</v>
+        <v>1085649.404601997</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.350563017582334e-06</v>
+        <v>2.498895179412988e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.25289351851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>891683.5821865805</v>
+        <v>982036.5491452909</v>
       </c>
     </row>
     <row r="13">
@@ -6818,28 +6818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>711.2733369143078</v>
+        <v>772.2514294912496</v>
       </c>
       <c r="AB13" t="n">
-        <v>973.1955587311509</v>
+        <v>1056.628475158505</v>
       </c>
       <c r="AC13" t="n">
-        <v>880.3151404943943</v>
+        <v>955.7853364767556</v>
       </c>
       <c r="AD13" t="n">
-        <v>711273.3369143078</v>
+        <v>772251.4294912496</v>
       </c>
       <c r="AE13" t="n">
-        <v>973195.5587311508</v>
+        <v>1056628.475158505</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.358335739879821e-06</v>
+        <v>2.513276750674192e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.18634259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>880315.1404943943</v>
+        <v>955785.3364767556</v>
       </c>
     </row>
     <row r="14">
@@ -6924,28 +6924,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>706.2129215075918</v>
+        <v>767.1910140845337</v>
       </c>
       <c r="AB14" t="n">
-        <v>966.2716751219104</v>
+        <v>1049.704591549264</v>
       </c>
       <c r="AC14" t="n">
-        <v>874.0520626190882</v>
+        <v>949.5222586014493</v>
       </c>
       <c r="AD14" t="n">
-        <v>706212.9215075917</v>
+        <v>767191.0140845337</v>
       </c>
       <c r="AE14" t="n">
-        <v>966271.6751219104</v>
+        <v>1049704.591549264</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.361119214756624e-06</v>
+        <v>2.518426907950163e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.16319444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>874052.0626190882</v>
+        <v>949522.2586014493</v>
       </c>
     </row>
     <row r="15">
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>696.5748922380592</v>
+        <v>757.5529848150013</v>
       </c>
       <c r="AB15" t="n">
-        <v>953.0844982754938</v>
+        <v>1036.517414702848</v>
       </c>
       <c r="AC15" t="n">
-        <v>862.1234514225747</v>
+        <v>937.5936474049358</v>
       </c>
       <c r="AD15" t="n">
-        <v>696574.8922380592</v>
+        <v>757552.9848150013</v>
       </c>
       <c r="AE15" t="n">
-        <v>953084.4982754939</v>
+        <v>1036517.414702848</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.366633646116328e-06</v>
+        <v>2.528630049723315e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>862123.4514225747</v>
+        <v>937593.6474049358</v>
       </c>
     </row>
     <row r="16">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>688.9234861018695</v>
+        <v>749.9015786788115</v>
       </c>
       <c r="AB16" t="n">
-        <v>942.615506843744</v>
+        <v>1026.048423271098</v>
       </c>
       <c r="AC16" t="n">
-        <v>852.6536058397494</v>
+        <v>928.1238018221103</v>
       </c>
       <c r="AD16" t="n">
-        <v>688923.4861018695</v>
+        <v>749901.5786788114</v>
       </c>
       <c r="AE16" t="n">
-        <v>942615.506843744</v>
+        <v>1026048.423271098</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.37209555908213e-06</v>
+        <v>2.538736018717674e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>852653.6058397493</v>
+        <v>928123.8018221103</v>
       </c>
     </row>
     <row r="17">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>681.4431154336817</v>
+        <v>742.4212080106236</v>
       </c>
       <c r="AB17" t="n">
-        <v>932.3805336848666</v>
+        <v>1015.81345011222</v>
       </c>
       <c r="AC17" t="n">
-        <v>843.39544415428</v>
+        <v>918.8656401366411</v>
       </c>
       <c r="AD17" t="n">
-        <v>681443.1154336816</v>
+        <v>742421.2080106236</v>
       </c>
       <c r="AE17" t="n">
-        <v>932380.5336848666</v>
+        <v>1015813.45011222</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.3739862212626e-06</v>
+        <v>2.542234238754184e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>843395.44415428</v>
+        <v>918865.6401366411</v>
       </c>
     </row>
     <row r="18">
@@ -7348,28 +7348,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>672.9708123962653</v>
+        <v>733.948904973207</v>
       </c>
       <c r="AB18" t="n">
-        <v>920.7883548974427</v>
+        <v>1004.221271324797</v>
       </c>
       <c r="AC18" t="n">
-        <v>832.9096066406028</v>
+        <v>908.3798026229639</v>
       </c>
       <c r="AD18" t="n">
-        <v>672970.8123962652</v>
+        <v>733948.904973207</v>
       </c>
       <c r="AE18" t="n">
-        <v>920788.3548974426</v>
+        <v>1004221.271324797</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.379868281379617e-06</v>
+        <v>2.553117589978879e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.01273148148148</v>
       </c>
       <c r="AH18" t="n">
-        <v>832909.6066406028</v>
+        <v>908379.8026229639</v>
       </c>
     </row>
     <row r="19">
@@ -7454,28 +7454,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>668.317387004515</v>
+        <v>729.295479581457</v>
       </c>
       <c r="AB19" t="n">
-        <v>914.4213329818108</v>
+        <v>997.8542494091649</v>
       </c>
       <c r="AC19" t="n">
-        <v>827.1502443604273</v>
+        <v>902.6204403427885</v>
       </c>
       <c r="AD19" t="n">
-        <v>668317.387004515</v>
+        <v>729295.479581457</v>
       </c>
       <c r="AE19" t="n">
-        <v>914421.3329818108</v>
+        <v>997854.2494091649</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.38102368604546e-06</v>
+        <v>2.5552553911123e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.00405092592593</v>
       </c>
       <c r="AH19" t="n">
-        <v>827150.2443604274</v>
+        <v>902620.4403427885</v>
       </c>
     </row>
     <row r="20">
@@ -7560,28 +7560,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>649.410709814253</v>
+        <v>722.4989726417504</v>
       </c>
       <c r="AB20" t="n">
-        <v>888.5523831463647</v>
+        <v>988.5549687735338</v>
       </c>
       <c r="AC20" t="n">
-        <v>803.7501907899771</v>
+        <v>894.2086699993997</v>
       </c>
       <c r="AD20" t="n">
-        <v>649410.709814253</v>
+        <v>722498.9726417504</v>
       </c>
       <c r="AE20" t="n">
-        <v>888552.3831463647</v>
+        <v>988554.9687735338</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.383702124134459e-06</v>
+        <v>2.560211202830688e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.9837962962963</v>
       </c>
       <c r="AH20" t="n">
-        <v>803750.1907899771</v>
+        <v>894208.6699993997</v>
       </c>
     </row>
     <row r="21">
@@ -7666,28 +7666,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>641.733200871387</v>
+        <v>714.8214636988844</v>
       </c>
       <c r="AB21" t="n">
-        <v>878.0476767029458</v>
+        <v>978.0502623301148</v>
       </c>
       <c r="AC21" t="n">
-        <v>794.24803878607</v>
+        <v>884.7065179954925</v>
       </c>
       <c r="AD21" t="n">
-        <v>641733.200871387</v>
+        <v>714821.4636988844</v>
       </c>
       <c r="AE21" t="n">
-        <v>878047.6767029457</v>
+        <v>978050.2623301148</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.386275525435654e-06</v>
+        <v>2.564972668991493e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH21" t="n">
-        <v>794248.03878607</v>
+        <v>884706.5179954926</v>
       </c>
     </row>
     <row r="22">
@@ -7772,28 +7772,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>638.5928476628351</v>
+        <v>711.6811104903323</v>
       </c>
       <c r="AB22" t="n">
-        <v>873.7509069003992</v>
+        <v>973.7534925275684</v>
       </c>
       <c r="AC22" t="n">
-        <v>790.3613466629241</v>
+        <v>880.8198258723468</v>
       </c>
       <c r="AD22" t="n">
-        <v>638592.847662835</v>
+        <v>711681.1104903324</v>
       </c>
       <c r="AE22" t="n">
-        <v>873750.9069003991</v>
+        <v>973753.4925275684</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.385907896678341e-06</v>
+        <v>2.564292459539949e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>790361.3466629242</v>
+        <v>880819.8258723468</v>
       </c>
     </row>
     <row r="23">
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>639.6903679415011</v>
+        <v>712.7786307689985</v>
       </c>
       <c r="AB23" t="n">
-        <v>875.2525825648476</v>
+        <v>975.2551681920166</v>
       </c>
       <c r="AC23" t="n">
-        <v>791.7197045095726</v>
+        <v>882.1781837189955</v>
       </c>
       <c r="AD23" t="n">
-        <v>639690.3679415011</v>
+        <v>712778.6307689985</v>
       </c>
       <c r="AE23" t="n">
-        <v>875252.5825648475</v>
+        <v>975255.1681920167</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.385907896678341e-06</v>
+        <v>2.564292459539949e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.96643518518519</v>
       </c>
       <c r="AH23" t="n">
-        <v>791719.7045095726</v>
+        <v>882178.1837189954</v>
       </c>
     </row>
   </sheetData>
@@ -8175,28 +8175,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1363.608651850029</v>
+        <v>1481.075091468058</v>
       </c>
       <c r="AB2" t="n">
-        <v>1865.749515629179</v>
+        <v>2026.472280568137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1687.685000453421</v>
+        <v>1833.068610282422</v>
       </c>
       <c r="AD2" t="n">
-        <v>1363608.651850029</v>
+        <v>1481075.091468058</v>
       </c>
       <c r="AE2" t="n">
-        <v>1865749.515629179</v>
+        <v>2026472.280568137</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.762812105934822e-07</v>
+        <v>1.670327225972279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.93981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>1687685.000453421</v>
+        <v>1833068.610282422</v>
       </c>
     </row>
     <row r="3">
@@ -8281,28 +8281,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>896.4293151956277</v>
+        <v>978.7753001246485</v>
       </c>
       <c r="AB3" t="n">
-        <v>1226.534136720911</v>
+        <v>1339.203546149258</v>
       </c>
       <c r="AC3" t="n">
-        <v>1109.475440163739</v>
+        <v>1211.391839288754</v>
       </c>
       <c r="AD3" t="n">
-        <v>896429.3151956277</v>
+        <v>978775.3001246485</v>
       </c>
       <c r="AE3" t="n">
-        <v>1226534.13672091</v>
+        <v>1339203.546149258</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.154013838069078e-06</v>
+        <v>2.199728477083339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.62268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1109475.440163739</v>
+        <v>1211391.839288754</v>
       </c>
     </row>
     <row r="4">
@@ -8387,28 +8387,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>786.1897801968289</v>
+        <v>856.6868016471117</v>
       </c>
       <c r="AB4" t="n">
-        <v>1075.699541510513</v>
+        <v>1172.156676367876</v>
       </c>
       <c r="AC4" t="n">
-        <v>973.0362870225375</v>
+        <v>1060.287688307553</v>
       </c>
       <c r="AD4" t="n">
-        <v>786189.7801968289</v>
+        <v>856686.8016471117</v>
       </c>
       <c r="AE4" t="n">
-        <v>1075699.541510513</v>
+        <v>1172156.676367876</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258000584741279e-06</v>
+        <v>2.397943264764593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.49710648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>973036.2870225376</v>
+        <v>1060287.688307553</v>
       </c>
     </row>
     <row r="5">
@@ -8493,28 +8493,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>727.8894493190651</v>
+        <v>810.0647525389426</v>
       </c>
       <c r="AB5" t="n">
-        <v>995.9304567744832</v>
+        <v>1108.366331958435</v>
       </c>
       <c r="AC5" t="n">
-        <v>900.8802517771007</v>
+        <v>1002.585404838239</v>
       </c>
       <c r="AD5" t="n">
-        <v>727889.4493190651</v>
+        <v>810064.7525389426</v>
       </c>
       <c r="AE5" t="n">
-        <v>995930.4567744832</v>
+        <v>1108366.331958435</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.312167139826014e-06</v>
+        <v>2.501193078410471e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>900880.2517771007</v>
+        <v>1002585.404838239</v>
       </c>
     </row>
     <row r="6">
@@ -8599,28 +8599,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>699.7388339952759</v>
+        <v>770.3211067915793</v>
       </c>
       <c r="AB6" t="n">
-        <v>957.4135429709766</v>
+        <v>1053.987322480989</v>
       </c>
       <c r="AC6" t="n">
-        <v>866.039338168173</v>
+        <v>953.3962517039004</v>
       </c>
       <c r="AD6" t="n">
-        <v>699738.8339952759</v>
+        <v>770321.1067915793</v>
       </c>
       <c r="AE6" t="n">
-        <v>957413.5429709766</v>
+        <v>1053987.322480989</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.345851456929862e-06</v>
+        <v>2.565400585391859e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.68113425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>866039.338168173</v>
+        <v>953396.2517039004</v>
       </c>
     </row>
     <row r="7">
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>686.0782505646858</v>
+        <v>756.6605233609891</v>
       </c>
       <c r="AB7" t="n">
-        <v>938.7225300588361</v>
+        <v>1035.296309568849</v>
       </c>
       <c r="AC7" t="n">
-        <v>849.1321692953658</v>
+        <v>936.4890828310932</v>
       </c>
       <c r="AD7" t="n">
-        <v>686078.2505646858</v>
+        <v>756660.5233609892</v>
       </c>
       <c r="AE7" t="n">
-        <v>938722.5300588361</v>
+        <v>1035296.309568848</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.361389706432604e-06</v>
+        <v>2.595018886999403e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54803240740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>849132.1692953658</v>
+        <v>936489.0828310932</v>
       </c>
     </row>
     <row r="8">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>665.4007113780555</v>
+        <v>735.8123919737666</v>
       </c>
       <c r="AB8" t="n">
-        <v>910.4306087150416</v>
+        <v>1006.770976450207</v>
       </c>
       <c r="AC8" t="n">
-        <v>823.5403892166619</v>
+        <v>910.6861674697382</v>
       </c>
       <c r="AD8" t="n">
-        <v>665400.7113780555</v>
+        <v>735812.3919737666</v>
       </c>
       <c r="AE8" t="n">
-        <v>910430.6087150415</v>
+        <v>1006770.976450207</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.38388213753098e-06</v>
+        <v>2.63789293198375e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.3599537037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>823540.3892166619</v>
+        <v>910686.1674697382</v>
       </c>
     </row>
     <row r="9">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>651.2959880610611</v>
+        <v>721.7076686567722</v>
       </c>
       <c r="AB9" t="n">
-        <v>891.1319040162535</v>
+        <v>987.4722717514187</v>
       </c>
       <c r="AC9" t="n">
-        <v>806.083525808424</v>
+        <v>893.2293040615004</v>
       </c>
       <c r="AD9" t="n">
-        <v>651295.988061061</v>
+        <v>721707.6686567721</v>
       </c>
       <c r="AE9" t="n">
-        <v>891131.9040162535</v>
+        <v>987472.2717514187</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397627512091099e-06</v>
+        <v>2.664093737251961e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.24710648148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>806083.525808424</v>
+        <v>893229.3040615005</v>
       </c>
     </row>
     <row r="10">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>640.2590962790526</v>
+        <v>699.07774645119</v>
       </c>
       <c r="AB10" t="n">
-        <v>876.030741766809</v>
+        <v>956.5090138280341</v>
       </c>
       <c r="AC10" t="n">
-        <v>792.4235972894522</v>
+        <v>865.2211360171184</v>
       </c>
       <c r="AD10" t="n">
-        <v>640259.0962790527</v>
+        <v>699077.74645119</v>
       </c>
       <c r="AE10" t="n">
-        <v>876030.741766809</v>
+        <v>956509.013828034</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.406646216347935e-06</v>
+        <v>2.681284779443753e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.17476851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>792423.5972894522</v>
+        <v>865221.1360171183</v>
       </c>
     </row>
     <row r="11">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>627.3238854273319</v>
+        <v>686.1425355994689</v>
       </c>
       <c r="AB11" t="n">
-        <v>858.3322156182571</v>
+        <v>938.8104876794822</v>
       </c>
       <c r="AC11" t="n">
-        <v>776.4141936364807</v>
+        <v>849.2117323641468</v>
       </c>
       <c r="AD11" t="n">
-        <v>627323.8854273319</v>
+        <v>686142.535599469</v>
       </c>
       <c r="AE11" t="n">
-        <v>858332.2156182572</v>
+        <v>938810.4876794822</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415447602429909e-06</v>
+        <v>2.698061579655019e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.10532407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>776414.1936364807</v>
+        <v>849211.7323641467</v>
       </c>
     </row>
     <row r="12">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>619.2237682192558</v>
+        <v>678.0424183913931</v>
       </c>
       <c r="AB12" t="n">
-        <v>847.2492779022169</v>
+        <v>927.7275499634419</v>
       </c>
       <c r="AC12" t="n">
-        <v>766.3889959410584</v>
+        <v>839.1865346687246</v>
       </c>
       <c r="AD12" t="n">
-        <v>619223.7682192558</v>
+        <v>678042.418391393</v>
       </c>
       <c r="AE12" t="n">
-        <v>847249.2779022169</v>
+        <v>927727.5499634419</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.421641170413519e-06</v>
+        <v>2.709867476099983e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>766388.9959410584</v>
+        <v>839186.5346687245</v>
       </c>
     </row>
     <row r="13">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>606.341495015237</v>
+        <v>665.1601451873742</v>
       </c>
       <c r="AB13" t="n">
-        <v>829.623183378695</v>
+        <v>910.1014554399201</v>
       </c>
       <c r="AC13" t="n">
-        <v>750.4451111404825</v>
+        <v>823.2426498681486</v>
       </c>
       <c r="AD13" t="n">
-        <v>606341.495015237</v>
+        <v>665160.1451873742</v>
       </c>
       <c r="AE13" t="n">
-        <v>829623.183378695</v>
+        <v>910101.4554399201</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.429138647446311e-06</v>
+        <v>2.724158824428099e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.00115740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>750445.1111404825</v>
+        <v>823242.6498681486</v>
       </c>
     </row>
     <row r="14">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>583.9530185252729</v>
+        <v>654.4499504670047</v>
       </c>
       <c r="AB14" t="n">
-        <v>798.9902821352525</v>
+        <v>895.4472945230671</v>
       </c>
       <c r="AC14" t="n">
-        <v>722.7357709981674</v>
+        <v>809.9870615019558</v>
       </c>
       <c r="AD14" t="n">
-        <v>583953.018525273</v>
+        <v>654449.9504670047</v>
       </c>
       <c r="AE14" t="n">
-        <v>798990.2821352525</v>
+        <v>895447.2945230671</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.43402830638074e-06</v>
+        <v>2.733479268989913e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>722735.7709981673</v>
+        <v>809987.0615019558</v>
       </c>
     </row>
     <row r="15">
@@ -9553,28 +9553,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>576.5766426405586</v>
+        <v>647.0735745822902</v>
       </c>
       <c r="AB15" t="n">
-        <v>788.8975992270492</v>
+        <v>885.3546116148639</v>
       </c>
       <c r="AC15" t="n">
-        <v>713.6063195815535</v>
+        <v>800.8576100853421</v>
       </c>
       <c r="AD15" t="n">
-        <v>576576.6426405585</v>
+        <v>647073.5745822903</v>
       </c>
       <c r="AE15" t="n">
-        <v>788897.5992270493</v>
+        <v>885354.6116148639</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.436962101741398e-06</v>
+        <v>2.739071535727002e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.94039351851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>713606.3195815536</v>
+        <v>800857.6100853421</v>
       </c>
     </row>
     <row r="16">
@@ -9659,28 +9659,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>576.0030937518276</v>
+        <v>646.5000256935593</v>
       </c>
       <c r="AB16" t="n">
-        <v>788.1128443342965</v>
+        <v>884.5698567221111</v>
       </c>
       <c r="AC16" t="n">
-        <v>712.8964605943546</v>
+        <v>800.1477510981434</v>
       </c>
       <c r="AD16" t="n">
-        <v>576003.0937518276</v>
+        <v>646500.0256935593</v>
       </c>
       <c r="AE16" t="n">
-        <v>788112.8443342965</v>
+        <v>884569.8567221111</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.435603863148501e-06</v>
+        <v>2.73648252334872e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH16" t="n">
-        <v>712896.4605943547</v>
+        <v>800147.7510981434</v>
       </c>
     </row>
   </sheetData>
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.5026832946451</v>
+        <v>712.5761885323891</v>
       </c>
       <c r="AB2" t="n">
-        <v>874.995784150957</v>
+        <v>974.9781777927666</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.4874145758851</v>
+        <v>881.9276288946912</v>
       </c>
       <c r="AD2" t="n">
-        <v>639502.683294645</v>
+        <v>712576.1885323891</v>
       </c>
       <c r="AE2" t="n">
-        <v>874995.784150957</v>
+        <v>974978.1777927666</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301594192323039e-06</v>
+        <v>2.772054998628714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.47800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>791487.414575885</v>
+        <v>881927.6288946912</v>
       </c>
     </row>
     <row r="3">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.5948966805491</v>
+        <v>566.3755516276946</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.04075467717</v>
+        <v>774.9400164628755</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.279672125553</v>
+        <v>700.9808289268021</v>
       </c>
       <c r="AD3" t="n">
-        <v>503594.8966805491</v>
+        <v>566375.5516276945</v>
       </c>
       <c r="AE3" t="n">
-        <v>689040.75467717</v>
+        <v>774940.0164628755</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4896493942134e-06</v>
+        <v>3.172563364057045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.77662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>623279.672125553</v>
+        <v>700980.8289268021</v>
       </c>
     </row>
     <row r="4">
@@ -10168,28 +10168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.8434280504839</v>
+        <v>524.4534907970371</v>
       </c>
       <c r="AB4" t="n">
-        <v>631.9145533527169</v>
+        <v>717.5804033635754</v>
       </c>
       <c r="AC4" t="n">
-        <v>571.6055152783786</v>
+        <v>649.0955367969766</v>
       </c>
       <c r="AD4" t="n">
-        <v>461843.4280504839</v>
+        <v>524453.4907970371</v>
       </c>
       <c r="AE4" t="n">
-        <v>631914.5533527168</v>
+        <v>717580.4033635755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557851232423154e-06</v>
+        <v>3.317815430822639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>571605.5152783786</v>
+        <v>649095.5367969766</v>
       </c>
     </row>
     <row r="5">
@@ -10274,28 +10274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>437.1657027398629</v>
+        <v>489.4830047043684</v>
       </c>
       <c r="AB5" t="n">
-        <v>598.1494008783211</v>
+        <v>669.7322415026242</v>
       </c>
       <c r="AC5" t="n">
-        <v>541.0628615664502</v>
+        <v>605.8139363487177</v>
       </c>
       <c r="AD5" t="n">
-        <v>437165.7027398629</v>
+        <v>489483.0047043684</v>
       </c>
       <c r="AE5" t="n">
-        <v>598149.4008783211</v>
+        <v>669732.2415026242</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.586708187967904e-06</v>
+        <v>3.379273194183015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.05613425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>541062.8615664502</v>
+        <v>605813.9363487177</v>
       </c>
     </row>
     <row r="6">
@@ -10380,28 +10380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.483917851906</v>
+        <v>486.8012198164115</v>
       </c>
       <c r="AB6" t="n">
-        <v>594.4800644826194</v>
+        <v>666.0629051069226</v>
       </c>
       <c r="AC6" t="n">
-        <v>537.7437214864082</v>
+        <v>602.4947962686757</v>
       </c>
       <c r="AD6" t="n">
-        <v>434483.917851906</v>
+        <v>486801.2198164115</v>
       </c>
       <c r="AE6" t="n">
-        <v>594480.0644826194</v>
+        <v>666062.9051069226</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.59137622489426e-06</v>
+        <v>3.389214891197193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.02430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>537743.7214864081</v>
+        <v>602494.7962686757</v>
       </c>
     </row>
   </sheetData>
@@ -10677,28 +10677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>848.6797780250777</v>
+        <v>936.3688055401088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1161.201113403258</v>
+        <v>1281.181109416187</v>
       </c>
       <c r="AC2" t="n">
-        <v>1050.377708896048</v>
+        <v>1158.906982482486</v>
       </c>
       <c r="AD2" t="n">
-        <v>848679.7780250777</v>
+        <v>936368.8055401088</v>
       </c>
       <c r="AE2" t="n">
-        <v>1161201.113403257</v>
+        <v>1281181.109416187</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.133259806528334e-06</v>
+        <v>2.300909211049194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.80902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1050377.708896048</v>
+        <v>1158906.982482486</v>
       </c>
     </row>
     <row r="3">
@@ -10783,28 +10783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.2370858766698</v>
+        <v>704.9826108078513</v>
       </c>
       <c r="AB3" t="n">
-        <v>874.6323820463518</v>
+        <v>964.588309745048</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.1586950581053</v>
+        <v>872.5293552711754</v>
       </c>
       <c r="AD3" t="n">
-        <v>639237.0858766697</v>
+        <v>704982.6108078513</v>
       </c>
       <c r="AE3" t="n">
-        <v>874632.3820463518</v>
+        <v>964588.3097450481</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.357475897216079e-06</v>
+        <v>2.756145393747054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>791158.6950581053</v>
+        <v>872529.3552711754</v>
       </c>
     </row>
     <row r="4">
@@ -10889,28 +10889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.1835496055471</v>
+        <v>639.0143258827492</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.2550196438469</v>
+        <v>874.3275919951924</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.4068212778706</v>
+        <v>790.882993741653</v>
       </c>
       <c r="AD4" t="n">
-        <v>573183.5496055471</v>
+        <v>639014.3258827492</v>
       </c>
       <c r="AE4" t="n">
-        <v>784255.0196438469</v>
+        <v>874327.5919951923</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.437975621446443e-06</v>
+        <v>2.919587665238164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66956018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>709406.8212778706</v>
+        <v>790882.9937416529</v>
       </c>
     </row>
     <row r="5">
@@ -10995,28 +10995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.7408050042146</v>
+        <v>608.4009890808245</v>
       </c>
       <c r="AB5" t="n">
-        <v>742.6019134411991</v>
+        <v>832.4410740176976</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.7290290707017</v>
+        <v>752.994066251833</v>
       </c>
       <c r="AD5" t="n">
-        <v>542740.8050042146</v>
+        <v>608400.9890808245</v>
       </c>
       <c r="AE5" t="n">
-        <v>742601.9134411991</v>
+        <v>832441.0740176976</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.480081384984804e-06</v>
+        <v>3.005076922516655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.33969907407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>671729.0290707017</v>
+        <v>752994.066251833</v>
       </c>
     </row>
     <row r="6">
@@ -11101,28 +11101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>522.7973641339053</v>
+        <v>577.6564338734579</v>
       </c>
       <c r="AB6" t="n">
-        <v>715.3144177999266</v>
+        <v>790.3750172289296</v>
       </c>
       <c r="AC6" t="n">
-        <v>647.0458137151916</v>
+        <v>714.9427348829036</v>
       </c>
       <c r="AD6" t="n">
-        <v>522797.3641339053</v>
+        <v>577656.433873458</v>
       </c>
       <c r="AE6" t="n">
-        <v>715314.4177999266</v>
+        <v>790375.0172289296</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.502178211304523e-06</v>
+        <v>3.049941119518177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>647045.8137151916</v>
+        <v>714942.7348829035</v>
       </c>
     </row>
     <row r="7">
@@ -11207,28 +11207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>503.5387947779116</v>
+        <v>558.3978645174643</v>
       </c>
       <c r="AB7" t="n">
-        <v>688.9639935789399</v>
+        <v>764.0245930079429</v>
       </c>
       <c r="AC7" t="n">
-        <v>623.2102369988033</v>
+        <v>691.1071581665152</v>
       </c>
       <c r="AD7" t="n">
-        <v>503538.7947779116</v>
+        <v>558397.8645174643</v>
       </c>
       <c r="AE7" t="n">
-        <v>688963.9935789399</v>
+        <v>764024.5930079429</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.521085207053153e-06</v>
+        <v>3.088328857634966e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.03298611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>623210.2369988033</v>
+        <v>691107.1581665152</v>
       </c>
     </row>
     <row r="8">
@@ -11313,28 +11313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>476.8858859352067</v>
+        <v>542.6313213578371</v>
       </c>
       <c r="AB8" t="n">
-        <v>652.4963078569997</v>
+        <v>742.4521130861477</v>
       </c>
       <c r="AC8" t="n">
-        <v>590.2229760194467</v>
+        <v>671.5935254512904</v>
       </c>
       <c r="AD8" t="n">
-        <v>476885.8859352067</v>
+        <v>542631.3213578372</v>
       </c>
       <c r="AE8" t="n">
-        <v>652496.3078569997</v>
+        <v>742452.1130861477</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.533438550901184e-06</v>
+        <v>3.113410416588572e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.94328703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>590222.9760194467</v>
+        <v>671593.5254512903</v>
       </c>
     </row>
     <row r="9">
@@ -11419,28 +11419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>477.3382153333129</v>
+        <v>543.0836507559433</v>
       </c>
       <c r="AB9" t="n">
-        <v>653.1152048948533</v>
+        <v>743.0710101240012</v>
       </c>
       <c r="AC9" t="n">
-        <v>590.7828063926349</v>
+        <v>672.1533558244786</v>
       </c>
       <c r="AD9" t="n">
-        <v>477338.2153333129</v>
+        <v>543083.6507559433</v>
       </c>
       <c r="AE9" t="n">
-        <v>653115.2048948533</v>
+        <v>743071.0101240012</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.533206563223287e-06</v>
+        <v>3.112939401396955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.94618055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>590782.806392635</v>
+        <v>672153.3558244786</v>
       </c>
     </row>
   </sheetData>
@@ -11716,28 +11716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.7969850503072</v>
+        <v>571.03706227469</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.2125285495233</v>
+        <v>781.3181009814305</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.81680652658</v>
+        <v>706.7501980106041</v>
       </c>
       <c r="AD2" t="n">
-        <v>500796.9850503072</v>
+        <v>571037.06227469</v>
       </c>
       <c r="AE2" t="n">
-        <v>685212.5285495233</v>
+        <v>781318.1009814305</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442355847129549e-06</v>
+        <v>3.211844744784737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>619816.80652658</v>
+        <v>706750.1980106041</v>
       </c>
     </row>
     <row r="3">
@@ -11822,28 +11822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.1601034817871</v>
+        <v>470.2684410631559</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.1991485704677</v>
+        <v>643.4420278419964</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.6390894788534</v>
+        <v>582.0328237813134</v>
       </c>
       <c r="AD3" t="n">
-        <v>410160.1034817871</v>
+        <v>470268.4410631559</v>
       </c>
       <c r="AE3" t="n">
-        <v>561199.1485704677</v>
+        <v>643442.0278419964</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.602470694311775e-06</v>
+        <v>3.568389235180563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.36863425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>507639.0894788534</v>
+        <v>582032.8237813134</v>
       </c>
     </row>
     <row r="4">
@@ -11928,28 +11928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.0318431535692</v>
+        <v>439.2643741470877</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.2905306763395</v>
+        <v>601.0208956845344</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.4894695030409</v>
+        <v>543.6603049385266</v>
       </c>
       <c r="AD4" t="n">
-        <v>389031.8431535693</v>
+        <v>439264.3741470877</v>
       </c>
       <c r="AE4" t="n">
-        <v>532290.5306763395</v>
+        <v>601020.8956845343</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.636407738209227e-06</v>
+        <v>3.643960403219631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>481489.4695030409</v>
+        <v>543660.3049385266</v>
       </c>
     </row>
   </sheetData>
@@ -12225,28 +12225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1473.249666958132</v>
+        <v>1591.936629379479</v>
       </c>
       <c r="AB2" t="n">
-        <v>2015.765189520293</v>
+        <v>2178.157927604415</v>
       </c>
       <c r="AC2" t="n">
-        <v>1823.383388976687</v>
+        <v>1970.277592057701</v>
       </c>
       <c r="AD2" t="n">
-        <v>1473249.666958132</v>
+        <v>1591936.629379479</v>
       </c>
       <c r="AE2" t="n">
-        <v>2015765.189520292</v>
+        <v>2178157.927604415</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.399813245410884e-07</v>
+        <v>1.588206170763971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.5474537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1823383.388976687</v>
+        <v>1970277.592057701</v>
       </c>
     </row>
     <row r="3">
@@ -12331,28 +12331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>939.3136043891355</v>
+        <v>1022.454216682278</v>
       </c>
       <c r="AB3" t="n">
-        <v>1285.210313116782</v>
+        <v>1398.966966761207</v>
       </c>
       <c r="AC3" t="n">
-        <v>1162.551644636919</v>
+        <v>1265.451522915986</v>
       </c>
       <c r="AD3" t="n">
-        <v>939313.6043891355</v>
+        <v>1022454.216682278</v>
       </c>
       <c r="AE3" t="n">
-        <v>1285210.313116782</v>
+        <v>1398966.966761207</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.125072095225343e-06</v>
+        <v>2.127245442233442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.84837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1162551.644636919</v>
+        <v>1265451.522915986</v>
       </c>
     </row>
     <row r="4">
@@ -12437,28 +12437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>821.2732672875749</v>
+        <v>904.3285387261461</v>
       </c>
       <c r="AB4" t="n">
-        <v>1123.702316322285</v>
+        <v>1237.342202844513</v>
       </c>
       <c r="AC4" t="n">
-        <v>1016.457744378592</v>
+        <v>1119.25199962572</v>
       </c>
       <c r="AD4" t="n">
-        <v>821273.2672875748</v>
+        <v>904328.5387261461</v>
       </c>
       <c r="AE4" t="n">
-        <v>1123702.316322285</v>
+        <v>1237342.202844513</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.230655287163365e-06</v>
+        <v>2.326878305567084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.65914351851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>1016457.744378592</v>
+        <v>1119251.99962572</v>
       </c>
     </row>
     <row r="5">
@@ -12543,28 +12543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.9934934057914</v>
+        <v>841.1716240253218</v>
       </c>
       <c r="AB5" t="n">
-        <v>1053.539067393271</v>
+        <v>1150.928125864415</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.9907774526247</v>
+        <v>1041.085160869684</v>
       </c>
       <c r="AD5" t="n">
-        <v>769993.4934057913</v>
+        <v>841171.6240253218</v>
       </c>
       <c r="AE5" t="n">
-        <v>1053539.067393271</v>
+        <v>1150928.125864414</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288427222374735e-06</v>
+        <v>2.436111381730775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.09201388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>952990.7774526246</v>
+        <v>1041085.160869684</v>
       </c>
     </row>
     <row r="6">
@@ -12649,28 +12649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>727.0531867590288</v>
+        <v>798.31656872458</v>
       </c>
       <c r="AB6" t="n">
-        <v>994.7862454465411</v>
+        <v>1092.291948570334</v>
       </c>
       <c r="AC6" t="n">
-        <v>899.845242372387</v>
+        <v>988.0451380401587</v>
       </c>
       <c r="AD6" t="n">
-        <v>727053.1867590288</v>
+        <v>798316.56872458</v>
       </c>
       <c r="AE6" t="n">
-        <v>994786.2454465411</v>
+        <v>1092291.948570334</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324501030941015e-06</v>
+        <v>2.504318428356751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.76215277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>899845.242372387</v>
+        <v>988045.1380401587</v>
       </c>
     </row>
     <row r="7">
@@ -12755,28 +12755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>701.5658679568048</v>
+        <v>772.8292499223558</v>
       </c>
       <c r="AB7" t="n">
-        <v>959.9133714401901</v>
+        <v>1057.419074563983</v>
       </c>
       <c r="AC7" t="n">
-        <v>868.300586516816</v>
+        <v>956.5004821845878</v>
       </c>
       <c r="AD7" t="n">
-        <v>701565.8679568048</v>
+        <v>772829.2499223558</v>
       </c>
       <c r="AE7" t="n">
-        <v>959913.3714401901</v>
+        <v>1057419.074563983</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.35282166274081e-06</v>
+        <v>2.557866050036249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>868300.5865168161</v>
+        <v>956500.4821845877</v>
       </c>
     </row>
     <row r="8">
@@ -12861,28 +12861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>691.6176073508428</v>
+        <v>762.7103971158018</v>
       </c>
       <c r="AB8" t="n">
-        <v>946.3017223928302</v>
+        <v>1043.574013741776</v>
       </c>
       <c r="AC8" t="n">
-        <v>855.9880141504669</v>
+        <v>943.9767745355875</v>
       </c>
       <c r="AD8" t="n">
-        <v>691617.6073508428</v>
+        <v>762710.3971158018</v>
       </c>
       <c r="AE8" t="n">
-        <v>946301.7223928303</v>
+        <v>1043574.013741776</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.362997707246821e-06</v>
+        <v>2.577106545278502e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.42939814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>855988.0141504669</v>
+        <v>943976.7745355875</v>
       </c>
     </row>
     <row r="9">
@@ -12967,28 +12967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>677.8100465132201</v>
+        <v>748.9028362781788</v>
       </c>
       <c r="AB9" t="n">
-        <v>927.409608508202</v>
+        <v>1024.681899857148</v>
       </c>
       <c r="AC9" t="n">
-        <v>838.8989370997391</v>
+        <v>926.8876974848595</v>
       </c>
       <c r="AD9" t="n">
-        <v>677810.0465132201</v>
+        <v>748902.8362781788</v>
       </c>
       <c r="AE9" t="n">
-        <v>927409.608508202</v>
+        <v>1024681.899857148</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.376458083577522e-06</v>
+        <v>2.602556935810583e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.31944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>838898.9370997391</v>
+        <v>926887.6974848595</v>
       </c>
     </row>
     <row r="10">
@@ -13073,28 +13073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>665.1201215110075</v>
+        <v>736.2129112759663</v>
       </c>
       <c r="AB10" t="n">
-        <v>910.0466932801953</v>
+        <v>1007.318984629141</v>
       </c>
       <c r="AC10" t="n">
-        <v>823.1931141320888</v>
+        <v>911.1818745172094</v>
       </c>
       <c r="AD10" t="n">
-        <v>665120.1215110074</v>
+        <v>736212.9112759663</v>
       </c>
       <c r="AE10" t="n">
-        <v>910046.6932801954</v>
+        <v>1007318.984629141</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.388141690232571e-06</v>
+        <v>2.624647874792429e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>823193.1141320888</v>
+        <v>911181.8745172094</v>
       </c>
     </row>
     <row r="11">
@@ -13179,28 +13179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>653.5025209815033</v>
+        <v>712.8887621280136</v>
       </c>
       <c r="AB11" t="n">
-        <v>894.1509797033649</v>
+        <v>975.4058547760737</v>
       </c>
       <c r="AC11" t="n">
-        <v>808.814465149257</v>
+        <v>882.3144889869599</v>
       </c>
       <c r="AD11" t="n">
-        <v>653502.5209815033</v>
+        <v>712888.7621280135</v>
       </c>
       <c r="AE11" t="n">
-        <v>894150.9797033649</v>
+        <v>975405.8547760737</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.397402429148094e-06</v>
+        <v>2.642157743478501e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.14872685185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>808814.465149257</v>
+        <v>882314.4889869599</v>
       </c>
     </row>
     <row r="12">
@@ -13285,28 +13285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>644.7563272361592</v>
+        <v>704.1425683826694</v>
       </c>
       <c r="AB12" t="n">
-        <v>882.1840515661496</v>
+        <v>963.4389266388584</v>
       </c>
       <c r="AC12" t="n">
-        <v>797.9896438377681</v>
+        <v>871.4896676754712</v>
       </c>
       <c r="AD12" t="n">
-        <v>644756.3272361592</v>
+        <v>704142.5683826695</v>
       </c>
       <c r="AE12" t="n">
-        <v>882184.0515661496</v>
+        <v>963438.9266388584</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.40289426269102e-06</v>
+        <v>2.65254150281559e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.10532407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>797989.6438377681</v>
+        <v>871489.6676754712</v>
       </c>
     </row>
     <row r="13">
@@ -13391,28 +13391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>636.3132603195553</v>
+        <v>695.6995014660655</v>
       </c>
       <c r="AB13" t="n">
-        <v>870.6318749290281</v>
+        <v>951.8867500017369</v>
       </c>
       <c r="AC13" t="n">
-        <v>787.5399907253118</v>
+        <v>861.0400145630148</v>
       </c>
       <c r="AD13" t="n">
-        <v>636313.2603195553</v>
+        <v>695699.5014660655</v>
       </c>
       <c r="AE13" t="n">
-        <v>870631.8749290281</v>
+        <v>951886.7500017369</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.408063047202009e-06</v>
+        <v>2.662314452779909e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.06481481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>787539.9907253118</v>
+        <v>861040.0145630147</v>
       </c>
     </row>
     <row r="14">
@@ -13497,28 +13497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>626.6532648499987</v>
+        <v>686.039505996509</v>
       </c>
       <c r="AB14" t="n">
-        <v>857.4146429586581</v>
+        <v>938.6695180313669</v>
       </c>
       <c r="AC14" t="n">
-        <v>775.5841928236923</v>
+        <v>849.0842166613953</v>
       </c>
       <c r="AD14" t="n">
-        <v>626653.2648499986</v>
+        <v>686039.505996509</v>
       </c>
       <c r="AE14" t="n">
-        <v>857414.642958658</v>
+        <v>938669.5180313669</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.412585733649125e-06</v>
+        <v>2.670865783998688e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>775584.1928236923</v>
+        <v>849084.2166613953</v>
       </c>
     </row>
     <row r="15">
@@ -13603,28 +13603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>603.9659694573575</v>
+        <v>675.1440105683369</v>
       </c>
       <c r="AB15" t="n">
-        <v>826.3728845096131</v>
+        <v>923.7618205112079</v>
       </c>
       <c r="AC15" t="n">
-        <v>747.5050162336427</v>
+        <v>835.5992888694756</v>
       </c>
       <c r="AD15" t="n">
-        <v>603965.9694573574</v>
+        <v>675144.0105683368</v>
       </c>
       <c r="AE15" t="n">
-        <v>826372.884509613</v>
+        <v>923761.8205112079</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.41786220117076e-06</v>
+        <v>2.680842337087264e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.98668981481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>747505.0162336427</v>
+        <v>835599.2888694756</v>
       </c>
     </row>
     <row r="16">
@@ -13709,28 +13709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>593.4994989878828</v>
+        <v>664.6775400988623</v>
       </c>
       <c r="AB16" t="n">
-        <v>812.0521978651896</v>
+        <v>909.4411338667844</v>
       </c>
       <c r="AC16" t="n">
-        <v>734.551075823353</v>
+        <v>822.6453484591858</v>
       </c>
       <c r="AD16" t="n">
-        <v>593499.4989878829</v>
+        <v>664677.5400988624</v>
       </c>
       <c r="AE16" t="n">
-        <v>812052.1978651895</v>
+        <v>909441.1338667844</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.424753913852079e-06</v>
+        <v>2.693872937039689e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.93460648148148</v>
       </c>
       <c r="AH16" t="n">
-        <v>734551.075823353</v>
+        <v>822645.3484591858</v>
       </c>
     </row>
     <row r="17">
@@ -13815,28 +13815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>591.2761779044476</v>
+        <v>662.4542190154272</v>
       </c>
       <c r="AB17" t="n">
-        <v>809.0101518728297</v>
+        <v>906.3990878744248</v>
       </c>
       <c r="AC17" t="n">
-        <v>731.7993584309656</v>
+        <v>819.8936310667987</v>
       </c>
       <c r="AD17" t="n">
-        <v>591276.1779044477</v>
+        <v>662454.2190154272</v>
       </c>
       <c r="AE17" t="n">
-        <v>809010.1518728298</v>
+        <v>906399.0878744249</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.424000132777559e-06</v>
+        <v>2.692447715169893e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.94039351851852</v>
       </c>
       <c r="AH17" t="n">
-        <v>731799.3584309657</v>
+        <v>819893.6310667987</v>
       </c>
     </row>
     <row r="18">
@@ -13921,28 +13921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>592.1757162384022</v>
+        <v>663.3537573493817</v>
       </c>
       <c r="AB18" t="n">
-        <v>810.2409399061769</v>
+        <v>907.6298759077717</v>
       </c>
       <c r="AC18" t="n">
-        <v>732.9126817818319</v>
+        <v>821.0069544176648</v>
       </c>
       <c r="AD18" t="n">
-        <v>592175.7162384022</v>
+        <v>663353.7573493817</v>
       </c>
       <c r="AE18" t="n">
-        <v>810240.9399061769</v>
+        <v>907629.8759077718</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.423192510197717e-06</v>
+        <v>2.690920691737968e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.94618055555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>732912.6817818319</v>
+        <v>821006.9544176648</v>
       </c>
     </row>
   </sheetData>
@@ -14218,28 +14218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.2505228343229</v>
+        <v>490.9628053970948</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.4242348891277</v>
+        <v>671.7569700946117</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.9795359804357</v>
+        <v>607.6454276856101</v>
       </c>
       <c r="AD2" t="n">
-        <v>432250.5228343228</v>
+        <v>490962.8053970948</v>
       </c>
       <c r="AE2" t="n">
-        <v>591424.2348891277</v>
+        <v>671756.9700946116</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.530270706500411e-06</v>
+        <v>3.508247737443377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.18460648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>534979.5359804357</v>
+        <v>607645.4276856101</v>
       </c>
     </row>
     <row r="3">
@@ -14324,28 +14324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.2037156741205</v>
+        <v>422.8306573823209</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.3195913192786</v>
+        <v>578.5355594025648</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.7606689197049</v>
+        <v>523.3209375929406</v>
       </c>
       <c r="AD3" t="n">
-        <v>364203.7156741205</v>
+        <v>422830.6573823208</v>
       </c>
       <c r="AE3" t="n">
-        <v>498319.5913192786</v>
+        <v>578535.5594025648</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.653792915619165e-06</v>
+        <v>3.791430646731303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>450760.6689197049</v>
+        <v>523320.9375929406</v>
       </c>
     </row>
     <row r="4">
@@ -14430,28 +14430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.8471455068021</v>
+        <v>425.4740872150024</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.9364486362471</v>
+        <v>582.1524167195332</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.0323384506331</v>
+        <v>526.5926071238688</v>
       </c>
       <c r="AD4" t="n">
-        <v>366847.1455068021</v>
+        <v>425474.0872150024</v>
       </c>
       <c r="AE4" t="n">
-        <v>501936.4486362471</v>
+        <v>582152.4167195333</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.655468229879513e-06</v>
+        <v>3.795271416497337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>454032.338450633</v>
+        <v>526592.6071238688</v>
       </c>
     </row>
   </sheetData>
@@ -14727,28 +14727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1092.989944047847</v>
+        <v>1184.067018035083</v>
       </c>
       <c r="AB2" t="n">
-        <v>1495.477060759448</v>
+        <v>1620.09273142571</v>
       </c>
       <c r="AC2" t="n">
-        <v>1352.750828995803</v>
+        <v>1465.473354952868</v>
       </c>
       <c r="AD2" t="n">
-        <v>1092989.944047847</v>
+        <v>1184067.018035083</v>
       </c>
       <c r="AE2" t="n">
-        <v>1495477.060759448</v>
+        <v>1620092.73142571</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.948101859462703e-07</v>
+        <v>1.949814216243397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.28182870370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1352750.828995803</v>
+        <v>1465473.354952869</v>
       </c>
     </row>
     <row r="3">
@@ -14833,28 +14833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>760.2942574034427</v>
+        <v>839.97595121547</v>
       </c>
       <c r="AB3" t="n">
-        <v>1040.268144794765</v>
+        <v>1149.292153576614</v>
       </c>
       <c r="AC3" t="n">
-        <v>940.986413081063</v>
+        <v>1039.605323480929</v>
       </c>
       <c r="AD3" t="n">
-        <v>760294.2574034426</v>
+        <v>839975.95121547</v>
       </c>
       <c r="AE3" t="n">
-        <v>1040268.144794765</v>
+        <v>1149292.153576614</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.248382667509212e-06</v>
+        <v>2.446812775751758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.97453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>940986.413081063</v>
+        <v>1039605.323480929</v>
       </c>
     </row>
     <row r="4">
@@ -14939,28 +14939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>686.6844943956675</v>
+        <v>754.9709870495889</v>
       </c>
       <c r="AB4" t="n">
-        <v>939.5520196139754</v>
+        <v>1032.984611450509</v>
       </c>
       <c r="AC4" t="n">
-        <v>849.8824935315586</v>
+        <v>934.3980099366793</v>
       </c>
       <c r="AD4" t="n">
-        <v>686684.4943956675</v>
+        <v>754970.9870495888</v>
       </c>
       <c r="AE4" t="n">
-        <v>939552.0196139754</v>
+        <v>1032984.611450509</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.341191315286554e-06</v>
+        <v>2.628716442785944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.0775462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>849882.4935315585</v>
+        <v>934398.0099366793</v>
       </c>
     </row>
     <row r="5">
@@ -15045,28 +15045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>637.7881573424977</v>
+        <v>706.1599013424398</v>
       </c>
       <c r="AB5" t="n">
-        <v>872.6498941036824</v>
+        <v>966.1991305928648</v>
       </c>
       <c r="AC5" t="n">
-        <v>789.3654129822447</v>
+        <v>873.9864416380778</v>
       </c>
       <c r="AD5" t="n">
-        <v>637788.1573424977</v>
+        <v>706159.9013424397</v>
       </c>
       <c r="AE5" t="n">
-        <v>872649.8941036824</v>
+        <v>966199.1305928648</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.389890666050298e-06</v>
+        <v>2.72416649726106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.65219907407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>789365.4129822447</v>
+        <v>873986.4416380778</v>
       </c>
     </row>
     <row r="6">
@@ -15151,28 +15151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>606.7379452495034</v>
+        <v>674.9390970488531</v>
       </c>
       <c r="AB6" t="n">
-        <v>830.1656240793683</v>
+        <v>923.4814487937039</v>
       </c>
       <c r="AC6" t="n">
-        <v>750.9357820620039</v>
+        <v>835.3456754351857</v>
       </c>
       <c r="AD6" t="n">
-        <v>606737.9452495034</v>
+        <v>674939.0970488531</v>
       </c>
       <c r="AE6" t="n">
-        <v>830165.6240793683</v>
+        <v>923481.4487937038</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429633814374733e-06</v>
+        <v>2.802062518729258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>750935.7820620039</v>
+        <v>835345.6754351858</v>
       </c>
     </row>
     <row r="7">
@@ -15257,28 +15257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>595.6596663195054</v>
+        <v>663.8608181188551</v>
       </c>
       <c r="AB7" t="n">
-        <v>815.0078341081722</v>
+        <v>908.3236588225077</v>
       </c>
       <c r="AC7" t="n">
-        <v>737.224630291567</v>
+        <v>821.6345236647487</v>
       </c>
       <c r="AD7" t="n">
-        <v>595659.6663195054</v>
+        <v>663860.8181188551</v>
       </c>
       <c r="AE7" t="n">
-        <v>815007.8341081722</v>
+        <v>908323.6588225077</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439149779466499e-06</v>
+        <v>2.820713678799108e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.25578703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>737224.630291567</v>
+        <v>821634.5236647488</v>
       </c>
     </row>
     <row r="8">
@@ -15363,28 +15363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>581.5956681156646</v>
+        <v>638.5722109575005</v>
       </c>
       <c r="AB8" t="n">
-        <v>795.7648513058662</v>
+        <v>873.7226708497335</v>
       </c>
       <c r="AC8" t="n">
-        <v>719.8181707602171</v>
+        <v>790.3358054213044</v>
       </c>
       <c r="AD8" t="n">
-        <v>581595.6681156646</v>
+        <v>638572.2109575005</v>
       </c>
       <c r="AE8" t="n">
-        <v>795764.8513058661</v>
+        <v>873722.6708497335</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451856391677269e-06</v>
+        <v>2.845618463127673e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>719818.1707602171</v>
+        <v>790335.8054213044</v>
       </c>
     </row>
     <row r="9">
@@ -15469,28 +15469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>565.5020930776433</v>
+        <v>622.4786359194793</v>
       </c>
       <c r="AB9" t="n">
-        <v>773.744911940424</v>
+        <v>851.7027314842912</v>
       </c>
       <c r="AC9" t="n">
-        <v>699.8997835026337</v>
+        <v>770.417418163721</v>
       </c>
       <c r="AD9" t="n">
-        <v>565502.0930776433</v>
+        <v>622478.6359194793</v>
       </c>
       <c r="AE9" t="n">
-        <v>773744.911940424</v>
+        <v>851702.7314842913</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.465514600397215e-06</v>
+        <v>2.872388363463222e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>699899.7835026337</v>
+        <v>770417.418163721</v>
       </c>
     </row>
     <row r="10">
@@ -15575,28 +15575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>556.4254276823341</v>
+        <v>613.4019705241702</v>
       </c>
       <c r="AB10" t="n">
-        <v>761.325817912346</v>
+        <v>839.2836374562132</v>
       </c>
       <c r="AC10" t="n">
-        <v>688.6659503782873</v>
+        <v>759.1835850393746</v>
       </c>
       <c r="AD10" t="n">
-        <v>556425.4276823341</v>
+        <v>613401.9705241702</v>
       </c>
       <c r="AE10" t="n">
-        <v>761325.817912346</v>
+        <v>839283.6374562132</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.468873176311956e-06</v>
+        <v>2.878971125840817e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.02719907407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>688665.9503782874</v>
+        <v>759183.5850393747</v>
       </c>
     </row>
     <row r="11">
@@ -15681,28 +15681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>529.3654287917016</v>
+        <v>597.6518319370718</v>
       </c>
       <c r="AB11" t="n">
-        <v>724.3011336272857</v>
+        <v>817.7336029942707</v>
       </c>
       <c r="AC11" t="n">
-        <v>655.1748499969225</v>
+        <v>739.6902556208167</v>
       </c>
       <c r="AD11" t="n">
-        <v>529365.4287917016</v>
+        <v>597651.8319370719</v>
       </c>
       <c r="AE11" t="n">
-        <v>724301.1336272857</v>
+        <v>817733.6029942706</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.479508666708636e-06</v>
+        <v>2.899816540036531e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>655174.8499969225</v>
+        <v>739690.2556208167</v>
       </c>
     </row>
     <row r="12">
@@ -15787,28 +15787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>527.3432046276239</v>
+        <v>595.6296077729943</v>
       </c>
       <c r="AB12" t="n">
-        <v>721.5342373117611</v>
+        <v>814.966706678746</v>
       </c>
       <c r="AC12" t="n">
-        <v>652.6720223823881</v>
+        <v>737.1874280062824</v>
       </c>
       <c r="AD12" t="n">
-        <v>527343.2046276239</v>
+        <v>595629.6077729943</v>
       </c>
       <c r="AE12" t="n">
-        <v>721534.2373117611</v>
+        <v>814966.706678746</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.480796120809286e-06</v>
+        <v>2.902339932281276e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH12" t="n">
-        <v>652672.0223823881</v>
+        <v>737187.4280062824</v>
       </c>
     </row>
     <row r="13">
@@ -15893,28 +15893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>529.7812560654846</v>
+        <v>598.0676592108549</v>
       </c>
       <c r="AB13" t="n">
-        <v>724.8700868482804</v>
+        <v>818.3025562152653</v>
       </c>
       <c r="AC13" t="n">
-        <v>655.6895031210364</v>
+        <v>740.2049087449305</v>
       </c>
       <c r="AD13" t="n">
-        <v>529781.2560654846</v>
+        <v>598067.6592108549</v>
       </c>
       <c r="AE13" t="n">
-        <v>724870.0868482804</v>
+        <v>818302.5562152653</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.480740144544041e-06</v>
+        <v>2.902230219574983e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>655689.5031210365</v>
+        <v>740204.9087449305</v>
       </c>
     </row>
   </sheetData>
@@ -16190,28 +16190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1271.126559601013</v>
+        <v>1375.768862794463</v>
       </c>
       <c r="AB2" t="n">
-        <v>1739.211436992119</v>
+        <v>1882.387652713998</v>
       </c>
       <c r="AC2" t="n">
-        <v>1573.223538444174</v>
+        <v>1702.735217086637</v>
       </c>
       <c r="AD2" t="n">
-        <v>1271126.559601014</v>
+        <v>1375768.862794463</v>
       </c>
       <c r="AE2" t="n">
-        <v>1739211.436992119</v>
+        <v>1882387.652713998</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.145501770639946e-07</v>
+        <v>1.758408443387567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.35243055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1573223.538444174</v>
+        <v>1702735.217086637</v>
       </c>
     </row>
     <row r="3">
@@ -16296,28 +16296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>854.5128078129787</v>
+        <v>935.8633564744185</v>
       </c>
       <c r="AB3" t="n">
-        <v>1169.182122094176</v>
+        <v>1280.489531705671</v>
       </c>
       <c r="AC3" t="n">
-        <v>1057.597021318922</v>
+        <v>1158.281407978026</v>
       </c>
       <c r="AD3" t="n">
-        <v>854512.8078129787</v>
+        <v>935863.3564744185</v>
       </c>
       <c r="AE3" t="n">
-        <v>1169182.122094176</v>
+        <v>1280489.531705671</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183842013308925e-06</v>
+        <v>2.276176686687895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4056712962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1057597.021318922</v>
+        <v>1158281.407978026</v>
       </c>
     </row>
     <row r="4">
@@ -16402,28 +16402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>750.9272526133535</v>
+        <v>820.7172648633605</v>
       </c>
       <c r="AB4" t="n">
-        <v>1027.451795597879</v>
+        <v>1122.941569276379</v>
       </c>
       <c r="AC4" t="n">
-        <v>929.3932382636686</v>
+        <v>1015.769601963032</v>
       </c>
       <c r="AD4" t="n">
-        <v>750927.2526133535</v>
+        <v>820717.2648633604</v>
       </c>
       <c r="AE4" t="n">
-        <v>1027451.795597879</v>
+        <v>1122941.569276379</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.286677490490034e-06</v>
+        <v>2.473898775524578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.33506944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>929393.2382636686</v>
+        <v>1015769.601963032</v>
       </c>
     </row>
     <row r="5">
@@ -16508,28 +16508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.3895630900777</v>
+        <v>768.2648266861052</v>
       </c>
       <c r="AB5" t="n">
-        <v>955.5674109928533</v>
+        <v>1051.173829324003</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.3693984349793</v>
+        <v>950.8512743850551</v>
       </c>
       <c r="AD5" t="n">
-        <v>698389.5630900777</v>
+        <v>768264.8266861051</v>
       </c>
       <c r="AE5" t="n">
-        <v>955567.4109928533</v>
+        <v>1051173.829324003</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.337574195996204e-06</v>
+        <v>2.571758028026147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.86342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>864369.3984349793</v>
+        <v>950851.2743850552</v>
       </c>
     </row>
     <row r="6">
@@ -16614,28 +16614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>670.6468420836429</v>
+        <v>740.5221056796704</v>
       </c>
       <c r="AB6" t="n">
-        <v>917.6085961893785</v>
+        <v>1013.215014520528</v>
       </c>
       <c r="AC6" t="n">
-        <v>830.0333196408169</v>
+        <v>916.515195590893</v>
       </c>
       <c r="AD6" t="n">
-        <v>670646.842083643</v>
+        <v>740522.1056796703</v>
       </c>
       <c r="AE6" t="n">
-        <v>917608.5961893785</v>
+        <v>1013215.014520528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370317011930669e-06</v>
+        <v>2.634712741111746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.57986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>830033.3196408169</v>
+        <v>916515.1955908929</v>
       </c>
     </row>
     <row r="7">
@@ -16720,28 +16720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>653.3068675295899</v>
+        <v>723.0115389250251</v>
       </c>
       <c r="AB7" t="n">
-        <v>893.8832780188359</v>
+        <v>989.2562845751389</v>
       </c>
       <c r="AC7" t="n">
-        <v>808.5723125377777</v>
+        <v>894.8430532052025</v>
       </c>
       <c r="AD7" t="n">
-        <v>653306.8675295899</v>
+        <v>723011.5389250251</v>
       </c>
       <c r="AE7" t="n">
-        <v>893883.2780188359</v>
+        <v>989256.2845751389</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.390116269137272e-06</v>
+        <v>2.672780833949103e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.41493055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>808572.3125377777</v>
+        <v>894843.0532052026</v>
       </c>
     </row>
     <row r="8">
@@ -16826,28 +16826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>637.9231448319671</v>
+        <v>707.6278162274023</v>
       </c>
       <c r="AB8" t="n">
-        <v>872.834589942002</v>
+        <v>968.207596498305</v>
       </c>
       <c r="AC8" t="n">
-        <v>789.5324817089773</v>
+        <v>875.8032223764023</v>
       </c>
       <c r="AD8" t="n">
-        <v>637923.1448319671</v>
+        <v>707627.8162274023</v>
       </c>
       <c r="AE8" t="n">
-        <v>872834.589942002</v>
+        <v>968207.596498305</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.40580210725663e-06</v>
+        <v>2.702940043232991e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.28761574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>789532.4817089774</v>
+        <v>875803.2223764024</v>
       </c>
     </row>
     <row r="9">
@@ -16932,28 +16932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>623.5533590913576</v>
+        <v>681.7828349299316</v>
       </c>
       <c r="AB9" t="n">
-        <v>853.1732151414951</v>
+        <v>932.8453528870018</v>
       </c>
       <c r="AC9" t="n">
-        <v>771.7475609245182</v>
+        <v>843.8159016641413</v>
       </c>
       <c r="AD9" t="n">
-        <v>623553.3590913576</v>
+        <v>681782.8349299316</v>
       </c>
       <c r="AE9" t="n">
-        <v>853173.2151414951</v>
+        <v>932845.3528870018</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.419239276274962e-06</v>
+        <v>2.728775729507651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>771747.5609245182</v>
+        <v>843815.9016641413</v>
       </c>
     </row>
     <row r="10">
@@ -17038,28 +17038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>612.2193071325124</v>
+        <v>670.4487829710864</v>
       </c>
       <c r="AB10" t="n">
-        <v>837.6654652283207</v>
+        <v>917.3376029738273</v>
       </c>
       <c r="AC10" t="n">
-        <v>757.7198488977933</v>
+        <v>829.7881896374165</v>
       </c>
       <c r="AD10" t="n">
-        <v>612219.3071325124</v>
+        <v>670448.7829710864</v>
       </c>
       <c r="AE10" t="n">
-        <v>837665.4652283207</v>
+        <v>917337.6029738273</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.42801457032775e-06</v>
+        <v>2.745648014421715e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.11400462962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>757719.8488977933</v>
+        <v>829788.1896374165</v>
       </c>
     </row>
     <row r="11">
@@ -17144,28 +17144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>600.5529779189014</v>
+        <v>658.7824537574753</v>
       </c>
       <c r="AB11" t="n">
-        <v>821.7030789161378</v>
+        <v>901.3752166616443</v>
       </c>
       <c r="AC11" t="n">
-        <v>743.2808903318952</v>
+        <v>815.3492310715185</v>
       </c>
       <c r="AD11" t="n">
-        <v>600552.9779189015</v>
+        <v>658782.4537574754</v>
       </c>
       <c r="AE11" t="n">
-        <v>821703.0789161378</v>
+        <v>901375.2166616444</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.435802643799599e-06</v>
+        <v>2.760622167282947e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>743280.8903318952</v>
+        <v>815349.2310715185</v>
       </c>
     </row>
     <row r="12">
@@ -17250,28 +17250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>576.188047055115</v>
+        <v>645.9779697965708</v>
       </c>
       <c r="AB12" t="n">
-        <v>788.3659056034182</v>
+        <v>883.8555568123707</v>
       </c>
       <c r="AC12" t="n">
-        <v>713.1253700511252</v>
+        <v>799.5016229692624</v>
       </c>
       <c r="AD12" t="n">
-        <v>576188.047055115</v>
+        <v>645977.9697965708</v>
       </c>
       <c r="AE12" t="n">
-        <v>788365.9056034182</v>
+        <v>883855.5568123707</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.443481026095788e-06</v>
+        <v>2.775385416582752e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.99537037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>713125.3700511252</v>
+        <v>799501.6229692624</v>
       </c>
     </row>
     <row r="13">
@@ -17356,28 +17356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>567.9553217402924</v>
+        <v>637.7452444817484</v>
       </c>
       <c r="AB13" t="n">
-        <v>777.1015276254709</v>
+        <v>872.5911788344233</v>
       </c>
       <c r="AC13" t="n">
-        <v>702.9360484977392</v>
+        <v>789.3123014158765</v>
       </c>
       <c r="AD13" t="n">
-        <v>567955.3217402925</v>
+        <v>637745.2444817484</v>
       </c>
       <c r="AE13" t="n">
-        <v>777101.5276254709</v>
+        <v>872591.1788344233</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.447923518710013e-06</v>
+        <v>2.783927010820497e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>702936.0484977392</v>
+        <v>789312.3014158765</v>
       </c>
     </row>
     <row r="14">
@@ -17462,28 +17462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>557.0937653341196</v>
+        <v>626.8836880755753</v>
       </c>
       <c r="AB14" t="n">
-        <v>762.2402669724949</v>
+        <v>857.7299181814473</v>
       </c>
       <c r="AC14" t="n">
-        <v>689.493125703573</v>
+        <v>775.8693786217102</v>
       </c>
       <c r="AD14" t="n">
-        <v>557093.7653341196</v>
+        <v>626883.6880755753</v>
       </c>
       <c r="AE14" t="n">
-        <v>762240.2669724949</v>
+        <v>857729.9181814473</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.452804776026876e-06</v>
+        <v>2.793312219303944e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.92303240740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>689493.125703573</v>
+        <v>775869.3786217102</v>
       </c>
     </row>
     <row r="15">
@@ -17568,28 +17568,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>558.9543352643648</v>
+        <v>628.7442580058206</v>
       </c>
       <c r="AB15" t="n">
-        <v>764.7859808336087</v>
+        <v>860.275632042561</v>
       </c>
       <c r="AC15" t="n">
-        <v>691.7958802067141</v>
+        <v>778.1721331248511</v>
       </c>
       <c r="AD15" t="n">
-        <v>558954.3352643647</v>
+        <v>628744.2580058206</v>
       </c>
       <c r="AE15" t="n">
-        <v>764785.9808336088</v>
+        <v>860275.6320425611</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.452695084851216e-06</v>
+        <v>2.793101315742519e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.92303240740741</v>
       </c>
       <c r="AH15" t="n">
-        <v>691795.880206714</v>
+        <v>778172.1331248512</v>
       </c>
     </row>
   </sheetData>
@@ -17865,28 +17865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1695.998775368926</v>
+        <v>1828.849503492848</v>
       </c>
       <c r="AB2" t="n">
-        <v>2320.540346645049</v>
+        <v>2502.312573824678</v>
       </c>
       <c r="AC2" t="n">
-        <v>2099.071232860077</v>
+        <v>2263.495373796605</v>
       </c>
       <c r="AD2" t="n">
-        <v>1695998.775368926</v>
+        <v>1828849.503492848</v>
       </c>
       <c r="AE2" t="n">
-        <v>2320540.346645049</v>
+        <v>2502312.573824678</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.731098791807e-07</v>
+        <v>1.440245067293767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.8119212962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2099071.232860077</v>
+        <v>2263495.373796605</v>
       </c>
     </row>
     <row r="3">
@@ -17971,28 +17971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1042.370533376489</v>
+        <v>1126.935270106055</v>
       </c>
       <c r="AB3" t="n">
-        <v>1426.217349908107</v>
+        <v>1541.922553434382</v>
       </c>
       <c r="AC3" t="n">
-        <v>1290.101167741499</v>
+        <v>1394.763629036499</v>
       </c>
       <c r="AD3" t="n">
-        <v>1042370.533376489</v>
+        <v>1126935.270106056</v>
       </c>
       <c r="AE3" t="n">
-        <v>1426217.349908107</v>
+        <v>1541922.553434382</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.068664005137003e-06</v>
+        <v>1.990839987226737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.33449074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1290101.167741499</v>
+        <v>1394763.629036499</v>
       </c>
     </row>
     <row r="4">
@@ -18077,28 +18077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>887.9712620692923</v>
+        <v>972.5359092903075</v>
       </c>
       <c r="AB4" t="n">
-        <v>1214.961455290489</v>
+        <v>1330.666536347216</v>
       </c>
       <c r="AC4" t="n">
-        <v>1099.007239206677</v>
+        <v>1203.669589720451</v>
       </c>
       <c r="AD4" t="n">
-        <v>887971.2620692923</v>
+        <v>972535.9092903074</v>
       </c>
       <c r="AE4" t="n">
-        <v>1214961.455290489</v>
+        <v>1330666.536347216</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183275268381745e-06</v>
+        <v>2.204352077797197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.94560185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1099007.239206677</v>
+        <v>1203669.589720451</v>
       </c>
     </row>
     <row r="5">
@@ -18183,28 +18183,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>829.8719878241427</v>
+        <v>902.3438691143393</v>
       </c>
       <c r="AB5" t="n">
-        <v>1135.467465109195</v>
+        <v>1234.626690324195</v>
       </c>
       <c r="AC5" t="n">
-        <v>1027.100043877769</v>
+        <v>1116.795651809096</v>
       </c>
       <c r="AD5" t="n">
-        <v>829871.9878241427</v>
+        <v>902343.8691143394</v>
       </c>
       <c r="AE5" t="n">
-        <v>1135467.465109195</v>
+        <v>1234626.690324195</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.244048353926763e-06</v>
+        <v>2.317567726746338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.3119212962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1027100.043877769</v>
+        <v>1116795.651809096</v>
       </c>
     </row>
     <row r="6">
@@ -18289,28 +18289,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>782.814571958142</v>
+        <v>867.2938783245856</v>
       </c>
       <c r="AB6" t="n">
-        <v>1071.081432694663</v>
+        <v>1186.669746629192</v>
       </c>
       <c r="AC6" t="n">
-        <v>968.8589240305159</v>
+        <v>1073.415651512351</v>
       </c>
       <c r="AD6" t="n">
-        <v>782814.571958142</v>
+        <v>867293.8783245856</v>
       </c>
       <c r="AE6" t="n">
-        <v>1071081.432694663</v>
+        <v>1186669.746629192</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.282216816189793e-06</v>
+        <v>2.38867267700098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.94733796296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>968858.9240305159</v>
+        <v>1073415.651512351</v>
       </c>
     </row>
     <row r="7">
@@ -18395,28 +18395,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>758.7012379985272</v>
+        <v>831.2583706347443</v>
       </c>
       <c r="AB7" t="n">
-        <v>1038.088505365903</v>
+        <v>1137.364375233553</v>
       </c>
       <c r="AC7" t="n">
-        <v>939.0147953801488</v>
+        <v>1028.815915562188</v>
       </c>
       <c r="AD7" t="n">
-        <v>758701.2379985271</v>
+        <v>831258.3706347443</v>
       </c>
       <c r="AE7" t="n">
-        <v>1038088.505365903</v>
+        <v>1137364.375233553</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308262424280515e-06</v>
+        <v>2.437193669407755e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.70717592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>939014.7953801488</v>
+        <v>1028815.915562188</v>
       </c>
     </row>
     <row r="8">
@@ -18501,28 +18501,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>745.8080905711823</v>
+        <v>818.3652232073995</v>
       </c>
       <c r="AB8" t="n">
-        <v>1020.44753225029</v>
+        <v>1119.723402117939</v>
       </c>
       <c r="AC8" t="n">
-        <v>923.0574519794283</v>
+        <v>1012.858572161468</v>
       </c>
       <c r="AD8" t="n">
-        <v>745808.0905711823</v>
+        <v>818365.2232073995</v>
       </c>
       <c r="AE8" t="n">
-        <v>1020447.53225029</v>
+        <v>1119723.402117939</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.321973425287622e-06</v>
+        <v>2.462736224353598e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.58564814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>923057.4519794283</v>
+        <v>1012858.572161468</v>
       </c>
     </row>
     <row r="9">
@@ -18607,28 +18607,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>729.1829485356941</v>
+        <v>801.5694889713191</v>
       </c>
       <c r="AB9" t="n">
-        <v>997.7002794678326</v>
+        <v>1096.742737560635</v>
       </c>
       <c r="AC9" t="n">
-        <v>902.4811650765588</v>
+        <v>992.0711499759473</v>
       </c>
       <c r="AD9" t="n">
-        <v>729182.948535694</v>
+        <v>801569.488971319</v>
       </c>
       <c r="AE9" t="n">
-        <v>997700.2794678326</v>
+        <v>1096742.737560635</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.339019534647811e-06</v>
+        <v>2.494491833205186e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.4380787037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>902481.1650765588</v>
+        <v>992071.1499759472</v>
       </c>
     </row>
     <row r="10">
@@ -18713,28 +18713,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>716.5617300206139</v>
+        <v>788.948270456239</v>
       </c>
       <c r="AB10" t="n">
-        <v>980.431371486637</v>
+        <v>1079.47382957944</v>
       </c>
       <c r="AC10" t="n">
-        <v>886.8603774360239</v>
+        <v>976.4503623354121</v>
       </c>
       <c r="AD10" t="n">
-        <v>716561.730020614</v>
+        <v>788948.270456239</v>
       </c>
       <c r="AE10" t="n">
-        <v>980431.3714866369</v>
+        <v>1079473.829579439</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.350613006541851e-06</v>
+        <v>2.516089592020396e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>886860.3774360239</v>
+        <v>976450.3623354122</v>
       </c>
     </row>
     <row r="11">
@@ -18819,28 +18819,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>705.1928985948238</v>
+        <v>777.5794390304488</v>
       </c>
       <c r="AB11" t="n">
-        <v>964.8760347724265</v>
+        <v>1063.918492865229</v>
       </c>
       <c r="AC11" t="n">
-        <v>872.7896202257655</v>
+        <v>962.3796051251539</v>
       </c>
       <c r="AD11" t="n">
-        <v>705192.8985948238</v>
+        <v>777579.4390304488</v>
       </c>
       <c r="AE11" t="n">
-        <v>964876.0347724265</v>
+        <v>1063918.492865229</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359877196411519e-06</v>
+        <v>2.533348075091912e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.26446759259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>872789.6202257655</v>
+        <v>962379.6051251539</v>
       </c>
     </row>
     <row r="12">
@@ -18925,28 +18925,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>696.2262022018209</v>
+        <v>756.6905689072197</v>
       </c>
       <c r="AB12" t="n">
-        <v>952.6074051847939</v>
+        <v>1035.337419210717</v>
       </c>
       <c r="AC12" t="n">
-        <v>861.6918914268468</v>
+        <v>936.5262690264396</v>
       </c>
       <c r="AD12" t="n">
-        <v>696226.2022018209</v>
+        <v>756690.5689072197</v>
       </c>
       <c r="AE12" t="n">
-        <v>952607.405184794</v>
+        <v>1035337.419210717</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.367076795395946e-06</v>
+        <v>2.54676038193606e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.2037037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>861691.8914268469</v>
+        <v>936526.2690264396</v>
       </c>
     </row>
     <row r="13">
@@ -19031,28 +19031,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>689.2325378700031</v>
+        <v>749.6969045754017</v>
       </c>
       <c r="AB13" t="n">
-        <v>943.0383651073057</v>
+        <v>1025.768379133229</v>
       </c>
       <c r="AC13" t="n">
-        <v>853.036107104122</v>
+        <v>927.8704847037147</v>
       </c>
       <c r="AD13" t="n">
-        <v>689232.537870003</v>
+        <v>749696.9045754017</v>
       </c>
       <c r="AE13" t="n">
-        <v>943038.3651073057</v>
+        <v>1025768.379133229</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.37099422425512e-06</v>
+        <v>2.55405825477773e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH13" t="n">
-        <v>853036.1071041221</v>
+        <v>927870.4847037147</v>
       </c>
     </row>
     <row r="14">
@@ -19137,28 +19137,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>680.0114449563555</v>
+        <v>740.4758116617543</v>
       </c>
       <c r="AB14" t="n">
-        <v>930.421658976945</v>
+        <v>1013.151673002868</v>
       </c>
       <c r="AC14" t="n">
-        <v>841.6235216991846</v>
+        <v>916.4578992987773</v>
       </c>
       <c r="AD14" t="n">
-        <v>680011.4449563555</v>
+        <v>740475.8116617543</v>
       </c>
       <c r="AE14" t="n">
-        <v>930421.658976945</v>
+        <v>1013151.673002868</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.37798207032824e-06</v>
+        <v>2.567076082008816e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.11689814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>841623.5216991846</v>
+        <v>916457.8992987773</v>
       </c>
     </row>
     <row r="15">
@@ -19243,28 +19243,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>670.8306085349283</v>
+        <v>731.2949752403271</v>
       </c>
       <c r="AB15" t="n">
-        <v>917.860033555231</v>
+        <v>1000.590047581154</v>
       </c>
       <c r="AC15" t="n">
-        <v>830.260760177367</v>
+        <v>905.0951377769596</v>
       </c>
       <c r="AD15" t="n">
-        <v>670830.6085349283</v>
+        <v>731294.9752403271</v>
       </c>
       <c r="AE15" t="n">
-        <v>917860.0335552309</v>
+        <v>1000590.047581154</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.383011201971774e-06</v>
+        <v>2.576444972819067e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>830260.760177367</v>
+        <v>905095.1377769597</v>
       </c>
     </row>
     <row r="16">
@@ -19349,28 +19349,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>662.0675645217923</v>
+        <v>722.5319312271909</v>
       </c>
       <c r="AB16" t="n">
-        <v>905.8700501382409</v>
+        <v>988.6000641641639</v>
       </c>
       <c r="AC16" t="n">
-        <v>819.4150839496472</v>
+        <v>894.2494615492399</v>
       </c>
       <c r="AD16" t="n">
-        <v>662067.5645217923</v>
+        <v>722531.9312271909</v>
       </c>
       <c r="AE16" t="n">
-        <v>905870.0501382409</v>
+        <v>988600.0641641639</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.388569715893574e-06</v>
+        <v>2.586800062661976e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH16" t="n">
-        <v>819415.0839496471</v>
+        <v>894249.4615492398</v>
       </c>
     </row>
     <row r="17">
@@ -19455,28 +19455,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>654.9373840012003</v>
+        <v>715.4017507065989</v>
       </c>
       <c r="AB17" t="n">
-        <v>896.114222588603</v>
+        <v>978.8442366145259</v>
       </c>
       <c r="AC17" t="n">
-        <v>810.5903388889567</v>
+        <v>885.4247164885494</v>
       </c>
       <c r="AD17" t="n">
-        <v>654937.3840012002</v>
+        <v>715401.750706599</v>
       </c>
       <c r="AE17" t="n">
-        <v>896114.2225886029</v>
+        <v>978844.2366145259</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.390528430323161e-06</v>
+        <v>2.590448999082811e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH17" t="n">
-        <v>810590.3388889567</v>
+        <v>885424.7164885494</v>
       </c>
     </row>
     <row r="18">
@@ -19561,28 +19561,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>649.2305228947166</v>
+        <v>709.6948896001154</v>
       </c>
       <c r="AB18" t="n">
-        <v>888.3058434537692</v>
+        <v>971.0358574796921</v>
       </c>
       <c r="AC18" t="n">
-        <v>803.5271804996222</v>
+        <v>878.361558099215</v>
       </c>
       <c r="AD18" t="n">
-        <v>649230.5228947166</v>
+        <v>709694.8896001154</v>
       </c>
       <c r="AE18" t="n">
-        <v>888305.8434537692</v>
+        <v>971035.8574796921</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.391798947791001e-06</v>
+        <v>2.59281587676119e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>803527.1804996222</v>
+        <v>878361.558099215</v>
       </c>
     </row>
     <row r="19">
@@ -19667,28 +19667,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>626.966452869117</v>
+        <v>699.4382446507626</v>
       </c>
       <c r="AB19" t="n">
-        <v>857.8431606232962</v>
+        <v>957.0022633687477</v>
       </c>
       <c r="AC19" t="n">
-        <v>775.9718133638457</v>
+        <v>865.6673105139462</v>
       </c>
       <c r="AD19" t="n">
-        <v>626966.452869117</v>
+        <v>699438.2446507626</v>
       </c>
       <c r="AE19" t="n">
-        <v>857843.1606232962</v>
+        <v>957002.2633687477</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.397569214624108e-06</v>
+        <v>2.603565446217162e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH19" t="n">
-        <v>775971.8133638457</v>
+        <v>865667.3105139462</v>
       </c>
     </row>
     <row r="20">
@@ -19773,28 +19773,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>622.1880118143002</v>
+        <v>694.6598035959458</v>
       </c>
       <c r="AB20" t="n">
-        <v>851.3050867621545</v>
+        <v>950.4641895076063</v>
       </c>
       <c r="AC20" t="n">
-        <v>770.0577240957673</v>
+        <v>859.7532212458678</v>
       </c>
       <c r="AD20" t="n">
-        <v>622188.0118143002</v>
+        <v>694659.8035959458</v>
       </c>
       <c r="AE20" t="n">
-        <v>851305.0867621545</v>
+        <v>950464.1895076063</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.397039832345841e-06</v>
+        <v>2.602579247184504e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>770057.7240957672</v>
+        <v>859753.2212458679</v>
       </c>
     </row>
     <row r="21">
@@ -19879,28 +19879,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>622.8972553261358</v>
+        <v>695.3690471077813</v>
       </c>
       <c r="AB21" t="n">
-        <v>852.2755050246634</v>
+        <v>951.434607770115</v>
       </c>
       <c r="AC21" t="n">
-        <v>770.9355270012927</v>
+        <v>860.6310241513935</v>
       </c>
       <c r="AD21" t="n">
-        <v>622897.2553261358</v>
+        <v>695369.0471077813</v>
       </c>
       <c r="AE21" t="n">
-        <v>852275.5050246634</v>
+        <v>951434.607770115</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.399316176142388e-06</v>
+        <v>2.606819903024934e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.94618055555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>770935.5270012927</v>
+        <v>860631.0241513934</v>
       </c>
     </row>
   </sheetData>
@@ -20176,28 +20176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>931.2548373059074</v>
+        <v>1020.048113018188</v>
       </c>
       <c r="AB2" t="n">
-        <v>1274.183952465797</v>
+        <v>1395.674829578195</v>
       </c>
       <c r="AC2" t="n">
-        <v>1152.57762437087</v>
+        <v>1262.473582685178</v>
       </c>
       <c r="AD2" t="n">
-        <v>931254.8373059074</v>
+        <v>1020048.113018188</v>
       </c>
       <c r="AE2" t="n">
-        <v>1274183.952465797</v>
+        <v>1395674.829578195</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08374035734708e-06</v>
+        <v>2.172354679770352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29224537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1152577.62437087</v>
+        <v>1262473.582685178</v>
       </c>
     </row>
     <row r="3">
@@ -20282,28 +20282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>679.0483810359899</v>
+        <v>756.8064246051815</v>
       </c>
       <c r="AB3" t="n">
-        <v>929.1039524337193</v>
+        <v>1035.495938087861</v>
       </c>
       <c r="AC3" t="n">
-        <v>840.4315752190315</v>
+        <v>936.6696590844316</v>
       </c>
       <c r="AD3" t="n">
-        <v>679048.3810359898</v>
+        <v>756806.4246051816</v>
       </c>
       <c r="AE3" t="n">
-        <v>929103.9524337193</v>
+        <v>1035495.938087861</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.31969714391739e-06</v>
+        <v>2.645329434336427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.55787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>840431.5752190315</v>
+        <v>936669.6590844316</v>
       </c>
     </row>
     <row r="4">
@@ -20388,28 +20388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.4121042050715</v>
+        <v>675.1350051397258</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.4562822210569</v>
+        <v>923.7494988864908</v>
       </c>
       <c r="AC4" t="n">
-        <v>753.0078230056088</v>
+        <v>835.5881432033278</v>
       </c>
       <c r="AD4" t="n">
-        <v>608412.1042050715</v>
+        <v>675135.0051397257</v>
       </c>
       <c r="AE4" t="n">
-        <v>832456.2822210569</v>
+        <v>923749.4988864907</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.403713795834536e-06</v>
+        <v>2.813740590877309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>753007.8230056087</v>
+        <v>835588.1432033278</v>
       </c>
     </row>
     <row r="5">
@@ -20494,28 +20494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>575.5333816827017</v>
+        <v>642.0856904167639</v>
       </c>
       <c r="AB5" t="n">
-        <v>787.4701635590845</v>
+        <v>878.5299684496715</v>
       </c>
       <c r="AC5" t="n">
-        <v>712.3151163703209</v>
+        <v>794.684301285389</v>
       </c>
       <c r="AD5" t="n">
-        <v>575533.3816827018</v>
+        <v>642085.6904167639</v>
       </c>
       <c r="AE5" t="n">
-        <v>787470.1635590845</v>
+        <v>878529.9684496715</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.447812515654716e-06</v>
+        <v>2.902136358114173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>712315.1163703209</v>
+        <v>794684.301285389</v>
       </c>
     </row>
     <row r="6">
@@ -20600,28 +20600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>554.6553248063842</v>
+        <v>621.2076335404462</v>
       </c>
       <c r="AB6" t="n">
-        <v>758.9038850660437</v>
+        <v>849.9636899566306</v>
       </c>
       <c r="AC6" t="n">
-        <v>686.4751634036321</v>
+        <v>768.8443483187002</v>
       </c>
       <c r="AD6" t="n">
-        <v>554655.3248063842</v>
+        <v>621207.6335404462</v>
       </c>
       <c r="AE6" t="n">
-        <v>758903.8850660437</v>
+        <v>849963.6899566306</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.473240868382195e-06</v>
+        <v>2.953107423897507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.24710648148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>686475.1634036321</v>
+        <v>768844.3483187002</v>
       </c>
     </row>
     <row r="7">
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>536.2709655987292</v>
+        <v>591.8734725528254</v>
       </c>
       <c r="AB7" t="n">
-        <v>733.7495937374438</v>
+        <v>809.8273967615205</v>
       </c>
       <c r="AC7" t="n">
-        <v>663.7215623351642</v>
+        <v>732.53860661449</v>
       </c>
       <c r="AD7" t="n">
-        <v>536270.9655987292</v>
+        <v>591873.4725528255</v>
       </c>
       <c r="AE7" t="n">
-        <v>733749.5937374438</v>
+        <v>809827.3967615205</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.492197590798402e-06</v>
+        <v>2.991106123839588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.10532407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>663721.5623351642</v>
+        <v>732538.60661449</v>
       </c>
     </row>
     <row r="8">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>519.0753629839004</v>
+        <v>574.6778699379967</v>
       </c>
       <c r="AB8" t="n">
-        <v>710.2218116233881</v>
+        <v>786.2996146474646</v>
       </c>
       <c r="AC8" t="n">
-        <v>642.4392387246243</v>
+        <v>711.2562830039501</v>
       </c>
       <c r="AD8" t="n">
-        <v>519075.3629839004</v>
+        <v>574677.8699379966</v>
       </c>
       <c r="AE8" t="n">
-        <v>710221.8116233881</v>
+        <v>786299.6146474646</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.50445359864453e-06</v>
+        <v>3.015673259149573e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>642439.2387246243</v>
+        <v>711256.2830039501</v>
       </c>
     </row>
     <row r="9">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>496.7418551490291</v>
+        <v>563.3794152291118</v>
       </c>
       <c r="AB9" t="n">
-        <v>679.6641209188896</v>
+        <v>770.8405704621256</v>
       </c>
       <c r="AC9" t="n">
-        <v>614.7979311329748</v>
+        <v>697.2726282987552</v>
       </c>
       <c r="AD9" t="n">
-        <v>496741.8551490291</v>
+        <v>563379.4152291118</v>
       </c>
       <c r="AE9" t="n">
-        <v>679664.1209188895</v>
+        <v>770840.5704621256</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.511956108120431e-06</v>
+        <v>3.030712019549611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>614797.9311329748</v>
+        <v>697272.6282987552</v>
       </c>
     </row>
     <row r="10">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>493.7425410414796</v>
+        <v>560.3801011215622</v>
       </c>
       <c r="AB10" t="n">
-        <v>675.5603270365405</v>
+        <v>766.7367765797767</v>
       </c>
       <c r="AC10" t="n">
-        <v>611.0857975790464</v>
+        <v>693.5604947448267</v>
       </c>
       <c r="AD10" t="n">
-        <v>493742.5410414796</v>
+        <v>560380.1011215622</v>
       </c>
       <c r="AE10" t="n">
-        <v>675560.3270365405</v>
+        <v>766736.7765797767</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.515907811584836e-06</v>
+        <v>3.038633198691615e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.93171296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>611085.7975790463</v>
+        <v>693560.4947448267</v>
       </c>
     </row>
   </sheetData>
@@ -21321,28 +21321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.0004584448823</v>
+        <v>788.9917687907154</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.2444855525298</v>
+        <v>1079.533345919681</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.313783773522</v>
+        <v>976.504198519673</v>
       </c>
       <c r="AD2" t="n">
-        <v>704000.4584448823</v>
+        <v>788991.7687907154</v>
       </c>
       <c r="AE2" t="n">
-        <v>963244.4855525298</v>
+        <v>1079533.345919681</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.241173554918651e-06</v>
+        <v>2.596612697298498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90914351851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>871313.783773522</v>
+        <v>976504.198519673</v>
       </c>
     </row>
     <row r="3">
@@ -21427,28 +21427,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.4479056983416</v>
+        <v>619.7939670373028</v>
       </c>
       <c r="AB3" t="n">
-        <v>746.3058880397574</v>
+        <v>848.0294490804653</v>
       </c>
       <c r="AC3" t="n">
-        <v>675.0795015321346</v>
+        <v>767.094708677032</v>
       </c>
       <c r="AD3" t="n">
-        <v>545447.9056983417</v>
+        <v>619793.9670373028</v>
       </c>
       <c r="AE3" t="n">
-        <v>746305.8880397574</v>
+        <v>848029.4490804652</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.44353167548025e-06</v>
+        <v>3.019958540568699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.95891203703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>675079.5015321346</v>
+        <v>767094.708677032</v>
       </c>
     </row>
     <row r="4">
@@ -21533,28 +21533,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>501.3142392511947</v>
+        <v>565.0151410918347</v>
       </c>
       <c r="AB4" t="n">
-        <v>685.9202585668224</v>
+        <v>773.0786427506354</v>
       </c>
       <c r="AC4" t="n">
-        <v>620.4569917843332</v>
+        <v>699.2971021092037</v>
       </c>
       <c r="AD4" t="n">
-        <v>501314.2392511947</v>
+        <v>565015.1410918348</v>
       </c>
       <c r="AE4" t="n">
-        <v>685920.2585668224</v>
+        <v>773078.6427506354</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.513330909282452e-06</v>
+        <v>3.165982902781591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>620456.9917843333</v>
+        <v>699297.1021092037</v>
       </c>
     </row>
     <row r="5">
@@ -21639,28 +21639,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>475.1628246138848</v>
+        <v>528.389159156796</v>
       </c>
       <c r="AB5" t="n">
-        <v>650.1387393410666</v>
+        <v>722.9653584428315</v>
       </c>
       <c r="AC5" t="n">
-        <v>588.0904105338061</v>
+        <v>653.9665593213005</v>
       </c>
       <c r="AD5" t="n">
-        <v>475162.8246138848</v>
+        <v>528389.1591567961</v>
       </c>
       <c r="AE5" t="n">
-        <v>650138.7393410667</v>
+        <v>722965.3584428316</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.546798747028636e-06</v>
+        <v>3.235999712355466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.16030092592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>588090.4105338061</v>
+        <v>653966.5593213005</v>
       </c>
     </row>
     <row r="6">
@@ -21745,28 +21745,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>455.703036000132</v>
+        <v>508.9293705430433</v>
       </c>
       <c r="AB6" t="n">
-        <v>623.5129980544468</v>
+        <v>696.3396171562117</v>
       </c>
       <c r="AC6" t="n">
-        <v>564.0057926261186</v>
+        <v>629.881941413613</v>
       </c>
       <c r="AD6" t="n">
-        <v>455703.036000132</v>
+        <v>508929.3705430433</v>
       </c>
       <c r="AE6" t="n">
-        <v>623512.9980544468</v>
+        <v>696339.6171562118</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.568394749281967e-06</v>
+        <v>3.28117989963843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>564005.7926261186</v>
+        <v>629881.941413613</v>
       </c>
     </row>
     <row r="7">
@@ -21851,28 +21851,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>442.2334129474493</v>
+        <v>506.0195661341099</v>
       </c>
       <c r="AB7" t="n">
-        <v>605.0832655559362</v>
+        <v>692.3582943923985</v>
       </c>
       <c r="AC7" t="n">
-        <v>547.3349679309739</v>
+        <v>626.2805905065566</v>
       </c>
       <c r="AD7" t="n">
-        <v>442233.4129474493</v>
+        <v>506019.5661341099</v>
       </c>
       <c r="AE7" t="n">
-        <v>605083.2655559363</v>
+        <v>692358.2943923986</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.572153169563624e-06</v>
+        <v>3.289042749911431e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.98090277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>547334.9679309739</v>
+        <v>626280.5905065566</v>
       </c>
     </row>
   </sheetData>
@@ -40713,28 +40713,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>575.88906099163</v>
+        <v>637.481461717545</v>
       </c>
       <c r="AB2" t="n">
-        <v>787.9568196810239</v>
+        <v>872.230259619166</v>
       </c>
       <c r="AC2" t="n">
-        <v>712.7553267150084</v>
+        <v>788.9858278239699</v>
       </c>
       <c r="AD2" t="n">
-        <v>575889.06099163</v>
+        <v>637481.4617175451</v>
       </c>
       <c r="AE2" t="n">
-        <v>787956.8196810239</v>
+        <v>872230.2596191659</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.367681303939121e-06</v>
+        <v>2.973141893893363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>712755.3267150085</v>
+        <v>788985.8278239699</v>
       </c>
     </row>
     <row r="3">
@@ -40819,28 +40819,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.6867601201789</v>
+        <v>520.2790713375429</v>
       </c>
       <c r="AB3" t="n">
-        <v>627.5954610281128</v>
+        <v>711.8687784967063</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.6986310633507</v>
+        <v>643.9290213910856</v>
       </c>
       <c r="AD3" t="n">
-        <v>458686.7601201789</v>
+        <v>520279.0713375428</v>
       </c>
       <c r="AE3" t="n">
-        <v>627595.4610281128</v>
+        <v>711868.7784967064</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543069367552287e-06</v>
+        <v>3.354410247942859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.57118055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>567698.6310633507</v>
+        <v>643929.0213910856</v>
       </c>
     </row>
     <row r="4">
@@ -40925,28 +40925,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.4939095852893</v>
+        <v>468.8209251083103</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.2335856259699</v>
+        <v>641.4614726526796</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.7158539451995</v>
+        <v>580.2412899995384</v>
       </c>
       <c r="AD4" t="n">
-        <v>417493.9095852892</v>
+        <v>468820.9251083103</v>
       </c>
       <c r="AE4" t="n">
-        <v>571233.5856259699</v>
+        <v>641461.4726526797</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.609842726042592e-06</v>
+        <v>3.499565898569725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.09085648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>516715.8539451994</v>
+        <v>580241.2899995383</v>
       </c>
     </row>
     <row r="5">
@@ -41031,28 +41031,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.3242985124488</v>
+        <v>464.6513140354699</v>
       </c>
       <c r="AB5" t="n">
-        <v>565.5285398058518</v>
+        <v>635.7564268325614</v>
       </c>
       <c r="AC5" t="n">
-        <v>511.5552896910712</v>
+        <v>575.0807257454102</v>
       </c>
       <c r="AD5" t="n">
-        <v>413324.2985124488</v>
+        <v>464651.3140354699</v>
       </c>
       <c r="AE5" t="n">
-        <v>565528.5398058518</v>
+        <v>635756.4268325614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.613607212981509e-06</v>
+        <v>3.507749350222442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>511555.2896910712</v>
+        <v>575080.7257454102</v>
       </c>
     </row>
   </sheetData>
@@ -41328,28 +41328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.6359891768316</v>
+        <v>403.7102532230751</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.2826528922939</v>
+        <v>552.3741788991867</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.0177821601367</v>
+        <v>499.6563625270767</v>
       </c>
       <c r="AD2" t="n">
-        <v>346635.9891768316</v>
+        <v>403710.2532230751</v>
       </c>
       <c r="AE2" t="n">
-        <v>474282.6528922939</v>
+        <v>552374.1788991868</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635716986006362e-06</v>
+        <v>3.890596955908815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.71585648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>429017.7821601367</v>
+        <v>499656.3625270767</v>
       </c>
     </row>
     <row r="3">
@@ -41434,28 +41434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.9484388499503</v>
+        <v>392.8521106956015</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.6594750336114</v>
+        <v>537.5175892656572</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.7902198725279</v>
+        <v>486.2176649568168</v>
       </c>
       <c r="AD3" t="n">
-        <v>335948.4388499503</v>
+        <v>392852.1106956016</v>
       </c>
       <c r="AE3" t="n">
-        <v>459659.4750336114</v>
+        <v>537517.5892656572</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.66956397445946e-06</v>
+        <v>3.971102930578562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.47858796296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>415790.2198725279</v>
+        <v>486217.6649568168</v>
       </c>
     </row>
   </sheetData>
@@ -41731,28 +41731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1174.436512730819</v>
+        <v>1278.060478586629</v>
       </c>
       <c r="AB2" t="n">
-        <v>1606.915849200507</v>
+        <v>1748.698730851155</v>
       </c>
       <c r="AC2" t="n">
-        <v>1453.554055873369</v>
+        <v>1581.805378292803</v>
       </c>
       <c r="AD2" t="n">
-        <v>1174436.512730819</v>
+        <v>1278060.478586629</v>
       </c>
       <c r="AE2" t="n">
-        <v>1606915.849200507</v>
+        <v>1748698.730851155</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.534815087377656e-07</v>
+        <v>1.850305425181121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80844907407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1453554.055873369</v>
+        <v>1581805.378292803</v>
       </c>
     </row>
     <row r="3">
@@ -41837,28 +41837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>814.2854588008059</v>
+        <v>894.7776607082887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1114.141288470335</v>
+        <v>1224.27427018548</v>
       </c>
       <c r="AC3" t="n">
-        <v>1007.809207605845</v>
+        <v>1107.431252118707</v>
       </c>
       <c r="AD3" t="n">
-        <v>814285.458800806</v>
+        <v>894777.6607082888</v>
       </c>
       <c r="AE3" t="n">
-        <v>1114141.288470335</v>
+        <v>1224274.27018548</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.214050672573381e-06</v>
+        <v>2.355960262806868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1007809.207605845</v>
+        <v>1107431.252118707</v>
       </c>
     </row>
     <row r="4">
@@ -41943,28 +41943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>719.8011426849797</v>
+        <v>788.8554291458807</v>
       </c>
       <c r="AB4" t="n">
-        <v>984.8636788068226</v>
+        <v>1079.346800002737</v>
       </c>
       <c r="AC4" t="n">
-        <v>890.8696715663534</v>
+        <v>976.3354562832236</v>
       </c>
       <c r="AD4" t="n">
-        <v>719801.1426849797</v>
+        <v>788855.4291458807</v>
       </c>
       <c r="AE4" t="n">
-        <v>984863.6788068226</v>
+        <v>1079346.800002737</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.311985681429964e-06</v>
+        <v>2.546010805519946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.21643518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>890869.6715663534</v>
+        <v>976335.4562832236</v>
       </c>
     </row>
     <row r="5">
@@ -42049,28 +42049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>668.7455276838351</v>
+        <v>737.8850654907567</v>
       </c>
       <c r="AB5" t="n">
-        <v>915.0071339474903</v>
+        <v>1009.606899796054</v>
       </c>
       <c r="AC5" t="n">
-        <v>827.6801373041193</v>
+        <v>913.2514342717016</v>
       </c>
       <c r="AD5" t="n">
-        <v>668745.5276838351</v>
+        <v>737885.0654907566</v>
       </c>
       <c r="AE5" t="n">
-        <v>915007.1339474902</v>
+        <v>1009606.899796054</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.362338013472178e-06</v>
+        <v>2.643723443147881e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.7650462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>827680.1373041193</v>
+        <v>913251.4342717016</v>
       </c>
     </row>
     <row r="6">
@@ -42155,28 +42155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>641.8599273707799</v>
+        <v>710.8288729771091</v>
       </c>
       <c r="AB6" t="n">
-        <v>878.2210694901936</v>
+        <v>972.5874235639106</v>
       </c>
       <c r="AC6" t="n">
-        <v>794.4048832090614</v>
+        <v>879.7650448939926</v>
       </c>
       <c r="AD6" t="n">
-        <v>641859.9273707799</v>
+        <v>710828.872977109</v>
       </c>
       <c r="AE6" t="n">
-        <v>878221.0694901936</v>
+        <v>972587.4235639106</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.395684662415427e-06</v>
+        <v>2.708435222963081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>794404.8832090613</v>
+        <v>879765.0448939926</v>
       </c>
     </row>
     <row r="7">
@@ -42261,28 +42261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>625.6209428971005</v>
+        <v>694.5898885034297</v>
       </c>
       <c r="AB7" t="n">
-        <v>856.0021745198725</v>
+        <v>950.3685285935895</v>
       </c>
       <c r="AC7" t="n">
-        <v>774.3065283902926</v>
+        <v>859.6666900752239</v>
       </c>
       <c r="AD7" t="n">
-        <v>625620.9428971005</v>
+        <v>694589.8885034297</v>
       </c>
       <c r="AE7" t="n">
-        <v>856002.1745198725</v>
+        <v>950368.5285935896</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413133490350847e-06</v>
+        <v>2.742296037982662e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>774306.5283902925</v>
+        <v>859666.6900752239</v>
       </c>
     </row>
     <row r="8">
@@ -42367,28 +42367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>610.259698073462</v>
+        <v>679.2286436797913</v>
       </c>
       <c r="AB8" t="n">
-        <v>834.9842416618776</v>
+        <v>929.3505957355949</v>
       </c>
       <c r="AC8" t="n">
-        <v>755.2945175454109</v>
+        <v>840.6546792303421</v>
       </c>
       <c r="AD8" t="n">
-        <v>610259.698073462</v>
+        <v>679228.6436797912</v>
       </c>
       <c r="AE8" t="n">
-        <v>834984.2416618776</v>
+        <v>929350.5957355949</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.428366594103992e-06</v>
+        <v>2.771857066968011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.22106481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>755294.5175454109</v>
+        <v>840654.6792303422</v>
       </c>
     </row>
     <row r="9">
@@ -42473,28 +42473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>595.0223720885622</v>
+        <v>652.6387431028811</v>
       </c>
       <c r="AB9" t="n">
-        <v>814.1358600259584</v>
+        <v>892.9691207026435</v>
       </c>
       <c r="AC9" t="n">
-        <v>736.4358761919362</v>
+        <v>807.7454011128149</v>
       </c>
       <c r="AD9" t="n">
-        <v>595022.3720885622</v>
+        <v>652638.7431028811</v>
       </c>
       <c r="AE9" t="n">
-        <v>814135.8600259584</v>
+        <v>892969.1207026435</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44177172540676e-06</v>
+        <v>2.797870772475118e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.11689814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>736435.8761919362</v>
+        <v>807745.4011128149</v>
       </c>
     </row>
     <row r="10">
@@ -42579,28 +42579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>583.0283365760531</v>
+        <v>640.644707590372</v>
       </c>
       <c r="AB10" t="n">
-        <v>797.7250914982413</v>
+        <v>876.5583521749264</v>
       </c>
       <c r="AC10" t="n">
-        <v>721.5913283798465</v>
+        <v>792.9008533007249</v>
       </c>
       <c r="AD10" t="n">
-        <v>583028.3365760531</v>
+        <v>640644.7075903721</v>
       </c>
       <c r="AE10" t="n">
-        <v>797725.0914982413</v>
+        <v>876558.3521749264</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.45069001524042e-06</v>
+        <v>2.815177411262904e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.0474537037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>721591.3283798464</v>
+        <v>792900.8533007249</v>
       </c>
     </row>
     <row r="11">
@@ -42685,28 +42685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>570.8843807195275</v>
+        <v>628.5007517338464</v>
       </c>
       <c r="AB11" t="n">
-        <v>781.1091953418222</v>
+        <v>859.9424560185074</v>
       </c>
       <c r="AC11" t="n">
-        <v>706.5612300320391</v>
+        <v>777.8707549529177</v>
       </c>
       <c r="AD11" t="n">
-        <v>570884.3807195275</v>
+        <v>628500.7517338464</v>
       </c>
       <c r="AE11" t="n">
-        <v>781109.1953418222</v>
+        <v>859942.4560185074</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.456118539486995e-06</v>
+        <v>2.825711887046774e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>706561.2300320391</v>
+        <v>777870.7549529177</v>
       </c>
     </row>
     <row r="12">
@@ -42791,28 +42791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>547.5013445949099</v>
+        <v>616.5555415472597</v>
       </c>
       <c r="AB12" t="n">
-        <v>749.1154937293725</v>
+        <v>843.5984924557389</v>
       </c>
       <c r="AC12" t="n">
-        <v>677.6209623980393</v>
+        <v>763.086636333683</v>
       </c>
       <c r="AD12" t="n">
-        <v>547501.3445949099</v>
+        <v>616555.5415472598</v>
       </c>
       <c r="AE12" t="n">
-        <v>749115.4937293725</v>
+        <v>843598.4924557389</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.463596608602175e-06</v>
+        <v>2.840223664912308e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.95196759259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>677620.9623980393</v>
+        <v>763086.636333683</v>
       </c>
     </row>
     <row r="13">
@@ -42897,28 +42897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>541.5106079436554</v>
+        <v>610.5648048960052</v>
       </c>
       <c r="AB13" t="n">
-        <v>740.918703550478</v>
+        <v>835.4017022768442</v>
       </c>
       <c r="AC13" t="n">
-        <v>670.2064623695511</v>
+        <v>755.6721363051946</v>
       </c>
       <c r="AD13" t="n">
-        <v>541510.6079436553</v>
+        <v>610564.8048960052</v>
       </c>
       <c r="AE13" t="n">
-        <v>740918.703550478</v>
+        <v>835401.7022768442</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.467141767293816e-06</v>
+        <v>2.847103322567081e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>670206.4623695511</v>
+        <v>755672.1363051946</v>
       </c>
     </row>
     <row r="14">
@@ -43003,28 +43003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>543.7984861224214</v>
+        <v>612.8526830747712</v>
       </c>
       <c r="AB14" t="n">
-        <v>744.0490794087272</v>
+        <v>838.5320781350937</v>
       </c>
       <c r="AC14" t="n">
-        <v>673.0380795493992</v>
+        <v>758.5037534850428</v>
       </c>
       <c r="AD14" t="n">
-        <v>543798.4861224215</v>
+        <v>612852.6830747712</v>
       </c>
       <c r="AE14" t="n">
-        <v>744049.0794087271</v>
+        <v>838532.0781350937</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.466643229352804e-06</v>
+        <v>2.846135870709378e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.92881944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>673038.0795493992</v>
+        <v>758503.7534850428</v>
       </c>
     </row>
   </sheetData>
@@ -43300,28 +43300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1587.94440916104</v>
+        <v>1707.642124001692</v>
       </c>
       <c r="AB2" t="n">
-        <v>2172.695595777221</v>
+        <v>2336.471289912688</v>
       </c>
       <c r="AC2" t="n">
-        <v>1965.336577513663</v>
+        <v>2113.481749261472</v>
       </c>
       <c r="AD2" t="n">
-        <v>1587944.40916104</v>
+        <v>1707642.124001692</v>
       </c>
       <c r="AE2" t="n">
-        <v>2172695.595777221</v>
+        <v>2336471.289912688</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.056425797080259e-07</v>
+        <v>1.511701476112462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17245370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1965336.577513663</v>
+        <v>2113481.749261472</v>
       </c>
     </row>
     <row r="3">
@@ -43406,28 +43406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>996.7583779043065</v>
+        <v>1080.580941487157</v>
       </c>
       <c r="AB3" t="n">
-        <v>1363.808786524785</v>
+        <v>1478.498516009356</v>
       </c>
       <c r="AC3" t="n">
-        <v>1233.648790056513</v>
+        <v>1337.392692727122</v>
       </c>
       <c r="AD3" t="n">
-        <v>996758.3779043065</v>
+        <v>1080580.941487157</v>
       </c>
       <c r="AE3" t="n">
-        <v>1363808.786524785</v>
+        <v>1478498.516009356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.095808422369712e-06</v>
+        <v>2.05616640847497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0943287037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1233648.790056513</v>
+        <v>1337392.692727122</v>
       </c>
     </row>
     <row r="4">
@@ -43512,28 +43512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>854.2064041983657</v>
+        <v>938.0288782726655</v>
       </c>
       <c r="AB4" t="n">
-        <v>1168.762887151089</v>
+        <v>1283.452494166111</v>
       </c>
       <c r="AC4" t="n">
-        <v>1057.217797570403</v>
+        <v>1160.961589459786</v>
       </c>
       <c r="AD4" t="n">
-        <v>854206.4041983658</v>
+        <v>938028.8782726654</v>
       </c>
       <c r="AE4" t="n">
-        <v>1168762.887151089</v>
+        <v>1283452.494166111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.20662230930232e-06</v>
+        <v>2.264096724807672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1057217.797570403</v>
+        <v>1160961.589459786</v>
       </c>
     </row>
     <row r="5">
@@ -43618,28 +43618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>799.8670395044272</v>
+        <v>871.7027723831535</v>
       </c>
       <c r="AB5" t="n">
-        <v>1094.413371093264</v>
+        <v>1192.702189986803</v>
       </c>
       <c r="AC5" t="n">
-        <v>989.9640949749357</v>
+        <v>1078.872366942499</v>
       </c>
       <c r="AD5" t="n">
-        <v>799867.0395044272</v>
+        <v>871702.7723831536</v>
       </c>
       <c r="AE5" t="n">
-        <v>1094413.371093264</v>
+        <v>1192702.189986803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265925887521072e-06</v>
+        <v>2.375373498143718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.20196759259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>989964.0949749358</v>
+        <v>1078872.366942499</v>
       </c>
     </row>
     <row r="6">
@@ -43724,28 +43724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>755.7288996777893</v>
+        <v>827.6498839025362</v>
       </c>
       <c r="AB6" t="n">
-        <v>1034.021620945158</v>
+        <v>1132.427084491347</v>
       </c>
       <c r="AC6" t="n">
-        <v>935.3360487006114</v>
+        <v>1024.349832918887</v>
       </c>
       <c r="AD6" t="n">
-        <v>755728.8996777893</v>
+        <v>827649.8839025362</v>
       </c>
       <c r="AE6" t="n">
-        <v>1034021.620945158</v>
+        <v>1132427.084491347</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30184965722514e-06</v>
+        <v>2.442780580461593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.86342592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>935336.0487006115</v>
+        <v>1024349.832918887</v>
       </c>
     </row>
     <row r="7">
@@ -43830,28 +43830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>729.664790547296</v>
+        <v>801.5857747720429</v>
       </c>
       <c r="AB7" t="n">
-        <v>998.3595569654758</v>
+        <v>1096.765020511664</v>
       </c>
       <c r="AC7" t="n">
-        <v>903.0775220551287</v>
+        <v>992.0913062734044</v>
       </c>
       <c r="AD7" t="n">
-        <v>729664.7905472959</v>
+        <v>801585.7747720429</v>
       </c>
       <c r="AE7" t="n">
-        <v>998359.5569654758</v>
+        <v>1096765.020511664</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.331314621380631e-06</v>
+        <v>2.498068410237918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.60011574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>903077.5220551287</v>
+        <v>992091.3062734044</v>
       </c>
     </row>
     <row r="8">
@@ -43936,28 +43936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>718.6351412678141</v>
+        <v>790.556125492561</v>
       </c>
       <c r="AB8" t="n">
-        <v>983.2683042275047</v>
+        <v>1081.673767773693</v>
       </c>
       <c r="AC8" t="n">
-        <v>889.4265572977632</v>
+        <v>978.4403415160389</v>
       </c>
       <c r="AD8" t="n">
-        <v>718635.1412678141</v>
+        <v>790556.125492561</v>
       </c>
       <c r="AE8" t="n">
-        <v>983268.3042275046</v>
+        <v>1081673.767773693</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342417361497193e-06</v>
+        <v>2.518901505515954e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>889426.5572977632</v>
+        <v>978440.3415160389</v>
       </c>
     </row>
     <row r="9">
@@ -44042,28 +44042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>702.4154351208508</v>
+        <v>774.1658271450054</v>
       </c>
       <c r="AB9" t="n">
-        <v>961.0757867142962</v>
+        <v>1059.247838485637</v>
       </c>
       <c r="AC9" t="n">
-        <v>869.3520625086213</v>
+        <v>958.1547114442461</v>
       </c>
       <c r="AD9" t="n">
-        <v>702415.4351208508</v>
+        <v>774165.8271450055</v>
       </c>
       <c r="AE9" t="n">
-        <v>961075.7867142962</v>
+        <v>1059247.838485637</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.359071471672036e-06</v>
+        <v>2.550151148433007e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>869352.0625086214</v>
+        <v>958154.7114442461</v>
       </c>
     </row>
     <row r="10">
@@ -44148,28 +44148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>691.4037001771246</v>
+        <v>763.1540922012791</v>
       </c>
       <c r="AB10" t="n">
-        <v>946.0090451608304</v>
+        <v>1044.181096932172</v>
       </c>
       <c r="AC10" t="n">
-        <v>855.7232696227139</v>
+        <v>944.5259185583384</v>
       </c>
       <c r="AD10" t="n">
-        <v>691403.7001771246</v>
+        <v>763154.0922012791</v>
       </c>
       <c r="AE10" t="n">
-        <v>946009.0451608304</v>
+        <v>1044181.096932172</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.36803906945849e-06</v>
+        <v>2.566977879234498e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.29050925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>855723.2696227139</v>
+        <v>944525.9185583384</v>
       </c>
     </row>
     <row r="11">
@@ -44254,28 +44254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>679.4849162496729</v>
+        <v>739.4191592788463</v>
       </c>
       <c r="AB11" t="n">
-        <v>929.7012391716546</v>
+        <v>1011.70591459636</v>
       </c>
       <c r="AC11" t="n">
-        <v>840.9718577489955</v>
+        <v>915.150122045452</v>
       </c>
       <c r="AD11" t="n">
-        <v>679484.9162496729</v>
+        <v>739419.1592788463</v>
       </c>
       <c r="AE11" t="n">
-        <v>929701.2391716546</v>
+        <v>1011705.91459636</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.376899910128439e-06</v>
+        <v>2.583604291812161e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.2181712962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>840971.8577489955</v>
+        <v>915150.122045452</v>
       </c>
     </row>
     <row r="12">
@@ -44360,28 +44360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>670.3306958015849</v>
+        <v>730.2649388307582</v>
       </c>
       <c r="AB12" t="n">
-        <v>917.1760308988772</v>
+        <v>999.1807063235826</v>
       </c>
       <c r="AC12" t="n">
-        <v>829.642037774532</v>
+        <v>903.8203020709881</v>
       </c>
       <c r="AD12" t="n">
-        <v>670330.6958015849</v>
+        <v>730264.9388307582</v>
       </c>
       <c r="AE12" t="n">
-        <v>917176.0308988772</v>
+        <v>999180.7063235827</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.384533043958575e-06</v>
+        <v>2.59792704481581e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.15451388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>829642.037774532</v>
+        <v>903820.3020709881</v>
       </c>
     </row>
     <row r="13">
@@ -44466,28 +44466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>663.7568506254712</v>
+        <v>723.6910936546445</v>
       </c>
       <c r="AB13" t="n">
-        <v>908.1814059113377</v>
+        <v>990.1860813360431</v>
       </c>
       <c r="AC13" t="n">
-        <v>821.5058471717678</v>
+        <v>895.6841114682239</v>
       </c>
       <c r="AD13" t="n">
-        <v>663756.8506254712</v>
+        <v>723691.0936546446</v>
       </c>
       <c r="AE13" t="n">
-        <v>908181.4059113377</v>
+        <v>990186.0813360431</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389817521225592e-06</v>
+        <v>2.60784279689526e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.11400462962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>821505.8471717677</v>
+        <v>895684.111468224</v>
       </c>
     </row>
     <row r="14">
@@ -44572,28 +44572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>652.8335593928174</v>
+        <v>712.767802421991</v>
       </c>
       <c r="AB14" t="n">
-        <v>893.2356769452226</v>
+        <v>975.240352369928</v>
       </c>
       <c r="AC14" t="n">
-        <v>807.9865176017162</v>
+        <v>882.1647818981726</v>
       </c>
       <c r="AD14" t="n">
-        <v>652833.5593928174</v>
+        <v>712767.8024219909</v>
       </c>
       <c r="AE14" t="n">
-        <v>893235.6769452227</v>
+        <v>975240.352369928</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.395208755609115e-06</v>
+        <v>2.617958867198537e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.07060185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>807986.5176017162</v>
+        <v>882164.7818981726</v>
       </c>
     </row>
     <row r="15">
@@ -44678,28 +44678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>644.8394050019767</v>
+        <v>704.7736480311502</v>
       </c>
       <c r="AB15" t="n">
-        <v>882.2977222304734</v>
+        <v>964.3023976551788</v>
       </c>
       <c r="AC15" t="n">
-        <v>798.0924659334269</v>
+        <v>872.2707302298832</v>
       </c>
       <c r="AD15" t="n">
-        <v>644839.4050019768</v>
+        <v>704773.6480311502</v>
       </c>
       <c r="AE15" t="n">
-        <v>882297.7222304734</v>
+        <v>964302.3976551788</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.400119582968364e-06</v>
+        <v>2.627173505494591e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH15" t="n">
-        <v>798092.4659334269</v>
+        <v>872270.7302298831</v>
       </c>
     </row>
     <row r="16">
@@ -44784,28 +44784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>622.7555514649029</v>
+        <v>694.5911948350781</v>
       </c>
       <c r="AB16" t="n">
-        <v>852.0816195501912</v>
+        <v>950.3703159741819</v>
       </c>
       <c r="AC16" t="n">
-        <v>770.7601456843844</v>
+        <v>859.6683068707214</v>
       </c>
       <c r="AD16" t="n">
-        <v>622755.5514649028</v>
+        <v>694591.1948350781</v>
       </c>
       <c r="AE16" t="n">
-        <v>852081.6195501912</v>
+        <v>950370.315974182</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.405350681677129e-06</v>
+        <v>2.636989098462127e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>770760.1456843844</v>
+        <v>859668.3068707214</v>
       </c>
     </row>
     <row r="17">
@@ -44890,28 +44890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>615.0693409268507</v>
+        <v>686.904984297026</v>
       </c>
       <c r="AB17" t="n">
-        <v>841.5650072003514</v>
+        <v>939.8537036243421</v>
       </c>
       <c r="AC17" t="n">
-        <v>761.2472240570551</v>
+        <v>850.1553852433919</v>
       </c>
       <c r="AD17" t="n">
-        <v>615069.3409268507</v>
+        <v>686904.9842970259</v>
       </c>
       <c r="AE17" t="n">
-        <v>841565.0072003513</v>
+        <v>939853.7036243421</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.407218931215973e-06</v>
+        <v>2.640494667379104e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.97511574074074</v>
       </c>
       <c r="AH17" t="n">
-        <v>761247.2240570551</v>
+        <v>850155.385243392</v>
       </c>
     </row>
     <row r="18">
@@ -44996,28 +44996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>607.9762218250705</v>
+        <v>679.8118651952457</v>
       </c>
       <c r="AB18" t="n">
-        <v>831.8598887189662</v>
+        <v>930.148585142957</v>
       </c>
       <c r="AC18" t="n">
-        <v>752.468348462314</v>
+        <v>841.3765096486508</v>
       </c>
       <c r="AD18" t="n">
-        <v>607976.2218250706</v>
+        <v>679811.8651952457</v>
       </c>
       <c r="AE18" t="n">
-        <v>831859.8887189662</v>
+        <v>930148.585142957</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.409033802196565e-06</v>
+        <v>2.643900077184168e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH18" t="n">
-        <v>752468.348462314</v>
+        <v>841376.5096486508</v>
       </c>
     </row>
     <row r="19">
@@ -45102,28 +45102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>606.7246242162284</v>
+        <v>678.5602675864036</v>
       </c>
       <c r="AB19" t="n">
-        <v>830.1473976539589</v>
+        <v>928.4360940779496</v>
       </c>
       <c r="AC19" t="n">
-        <v>750.9192951410548</v>
+        <v>839.8274563273916</v>
       </c>
       <c r="AD19" t="n">
-        <v>606724.6242162285</v>
+        <v>678560.2675864036</v>
       </c>
       <c r="AE19" t="n">
-        <v>830147.3976539589</v>
+        <v>928436.0940779496</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.411382458759684e-06</v>
+        <v>2.648307078108367e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.94328703703704</v>
       </c>
       <c r="AH19" t="n">
-        <v>750919.2951410548</v>
+        <v>839827.4563273916</v>
       </c>
     </row>
   </sheetData>
@@ -45399,28 +45399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.8562850405307</v>
+        <v>359.8069540740212</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.803621450569</v>
+        <v>492.3037481265908</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.169731964777</v>
+        <v>445.3189693580383</v>
       </c>
       <c r="AD2" t="n">
-        <v>295856.2850405307</v>
+        <v>359806.9540740213</v>
       </c>
       <c r="AE2" t="n">
-        <v>404803.621450569</v>
+        <v>492303.7481265908</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.654281698460729e-06</v>
+        <v>4.137232985186943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>366169.731964777</v>
+        <v>445318.9693580383</v>
       </c>
     </row>
   </sheetData>
@@ -45696,28 +45696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.7943879191063</v>
+        <v>857.4067653934862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1069.685571885111</v>
+        <v>1173.141762528224</v>
       </c>
       <c r="AC2" t="n">
-        <v>967.5962822175248</v>
+        <v>1061.178759227334</v>
       </c>
       <c r="AD2" t="n">
-        <v>781794.3879191063</v>
+        <v>857406.7653934862</v>
       </c>
       <c r="AE2" t="n">
-        <v>1069685.571885111</v>
+        <v>1173141.762528224</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.184164832412561e-06</v>
+        <v>2.438531051073642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>967596.2822175248</v>
+        <v>1061178.759227335</v>
       </c>
     </row>
     <row r="3">
@@ -45802,28 +45802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>598.9579270748241</v>
+        <v>663.756357574861</v>
       </c>
       <c r="AB3" t="n">
-        <v>819.5206599825942</v>
+        <v>908.1807312977411</v>
       </c>
       <c r="AC3" t="n">
-        <v>741.3067583983249</v>
+        <v>821.5052369423457</v>
       </c>
       <c r="AD3" t="n">
-        <v>598957.9270748241</v>
+        <v>663756.357574861</v>
       </c>
       <c r="AE3" t="n">
-        <v>819520.6599825942</v>
+        <v>908180.7312977411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.397447362919078e-06</v>
+        <v>2.877740238051508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.17303240740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>741306.7583983248</v>
+        <v>821505.2369423457</v>
       </c>
     </row>
     <row r="4">
@@ -45908,28 +45908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.7137026584952</v>
+        <v>603.5973845045529</v>
       </c>
       <c r="AB4" t="n">
-        <v>737.0918543485691</v>
+        <v>825.8685703163652</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.7448422844559</v>
+        <v>747.048833079189</v>
       </c>
       <c r="AD4" t="n">
-        <v>538713.7026584952</v>
+        <v>603597.3845045529</v>
       </c>
       <c r="AE4" t="n">
-        <v>737091.8543485691</v>
+        <v>825868.5703163652</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.473989219236466e-06</v>
+        <v>3.03536161661964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.53935185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>666744.8422844559</v>
+        <v>747048.8330791889</v>
       </c>
     </row>
     <row r="5">
@@ -46014,28 +46014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.4062115108274</v>
+        <v>574.1193011562926</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.9920520050727</v>
+        <v>785.5353561980219</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.4721087961967</v>
+        <v>710.5649643082787</v>
       </c>
       <c r="AD5" t="n">
-        <v>509406.2115108274</v>
+        <v>574119.3011562927</v>
       </c>
       <c r="AE5" t="n">
-        <v>696992.0520050727</v>
+        <v>785535.3561980219</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.514023784637497e-06</v>
+        <v>3.117804134902972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.23553240740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>630472.1087961968</v>
+        <v>710564.9643082788</v>
       </c>
     </row>
     <row r="6">
@@ -46120,28 +46120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.5992687269949</v>
+        <v>542.6690931072606</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.5230749507023</v>
+        <v>742.5037940600808</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.7201709554352</v>
+        <v>671.6402740656059</v>
       </c>
       <c r="AD6" t="n">
-        <v>488599.2687269949</v>
+        <v>542669.0931072605</v>
       </c>
       <c r="AE6" t="n">
-        <v>668523.0749507023</v>
+        <v>742503.7940600809</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.536245613890932e-06</v>
+        <v>3.16356518029372e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.07349537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>604720.1709554351</v>
+        <v>671640.2740656059</v>
       </c>
     </row>
     <row r="7">
@@ -46226,28 +46226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.7915219761491</v>
+        <v>525.589862967635</v>
       </c>
       <c r="AB7" t="n">
-        <v>630.475289054991</v>
+        <v>719.1352379005893</v>
       </c>
       <c r="AC7" t="n">
-        <v>570.3036123452077</v>
+        <v>650.5019801080019</v>
       </c>
       <c r="AD7" t="n">
-        <v>460791.5219761491</v>
+        <v>525589.862967635</v>
       </c>
       <c r="AE7" t="n">
-        <v>630475.289054991</v>
+        <v>719135.2379005894</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549355317392297e-06</v>
+        <v>3.190561775854928e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.97800925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>570303.6123452077</v>
+        <v>650501.980108002</v>
       </c>
     </row>
     <row r="8">
@@ -46332,28 +46332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>460.9207130341481</v>
+        <v>525.7190540256339</v>
       </c>
       <c r="AB8" t="n">
-        <v>630.6520539600523</v>
+        <v>719.3120028056508</v>
       </c>
       <c r="AC8" t="n">
-        <v>570.463507055821</v>
+        <v>650.6618748186154</v>
       </c>
       <c r="AD8" t="n">
-        <v>460920.7130341481</v>
+        <v>525719.054025634</v>
       </c>
       <c r="AE8" t="n">
-        <v>630652.0539600523</v>
+        <v>719312.0028056508</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550589863461933e-06</v>
+        <v>3.193104056154414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.9693287037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>570463.507055821</v>
+        <v>650661.8748186154</v>
       </c>
     </row>
   </sheetData>
@@ -46629,28 +46629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.016198060197</v>
+        <v>1095.106656690385</v>
       </c>
       <c r="AB2" t="n">
-        <v>1375.107500371388</v>
+        <v>1498.373240379739</v>
       </c>
       <c r="AC2" t="n">
-        <v>1243.86917051144</v>
+        <v>1355.370601297947</v>
       </c>
       <c r="AD2" t="n">
-        <v>1005016.198060197</v>
+        <v>1095106.656690385</v>
       </c>
       <c r="AE2" t="n">
-        <v>1375107.500371388</v>
+        <v>1498373.240379739</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.037820435142854e-06</v>
+        <v>2.056113356988562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1243869.17051144</v>
+        <v>1355370.601297947</v>
       </c>
     </row>
     <row r="3">
@@ -46735,28 +46735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>719.5076238621956</v>
+        <v>798.2514343090389</v>
       </c>
       <c r="AB3" t="n">
-        <v>984.4620734043529</v>
+        <v>1092.202828789463</v>
       </c>
       <c r="AC3" t="n">
-        <v>890.5063948198386</v>
+        <v>987.9645237260936</v>
       </c>
       <c r="AD3" t="n">
-        <v>719507.6238621956</v>
+        <v>798251.4343090389</v>
       </c>
       <c r="AE3" t="n">
-        <v>984462.0734043529</v>
+        <v>1092202.828789463</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.283238705582394e-06</v>
+        <v>2.542332135124601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76331018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>890506.3948198387</v>
+        <v>987964.5237260936</v>
       </c>
     </row>
     <row r="4">
@@ -46841,28 +46841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>641.6009135968229</v>
+        <v>720.2593831890945</v>
       </c>
       <c r="AB4" t="n">
-        <v>877.8666754177844</v>
+        <v>985.4906636806966</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.0843120095276</v>
+        <v>891.4368178838436</v>
       </c>
       <c r="AD4" t="n">
-        <v>641600.9135968229</v>
+        <v>720259.3831890945</v>
       </c>
       <c r="AE4" t="n">
-        <v>877866.6754177845</v>
+        <v>985490.6636806966</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.371874547719922e-06</v>
+        <v>2.717936057301962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.93865740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>794084.3120095276</v>
+        <v>891436.8178838436</v>
       </c>
     </row>
     <row r="5">
@@ -46947,28 +46947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.6827245787713</v>
+        <v>675.2505685514126</v>
       </c>
       <c r="AB5" t="n">
-        <v>831.458312838395</v>
+        <v>923.9076178446587</v>
       </c>
       <c r="AC5" t="n">
-        <v>752.105098420169</v>
+        <v>835.7311715100495</v>
       </c>
       <c r="AD5" t="n">
-        <v>607682.7245787713</v>
+        <v>675250.5685514126</v>
       </c>
       <c r="AE5" t="n">
-        <v>831458.312838395</v>
+        <v>923907.6178446587</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.417154671417254e-06</v>
+        <v>2.807644318950678e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.55671296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>752105.0984201691</v>
+        <v>835731.1715100495</v>
       </c>
     </row>
     <row r="6">
@@ -47053,28 +47053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.9839866824523</v>
+        <v>656.3812384545014</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.8738747185558</v>
+        <v>898.0897679499725</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.9624031665029</v>
+        <v>812.3773409737323</v>
       </c>
       <c r="AD6" t="n">
-        <v>588983.9866824523</v>
+        <v>656381.2384545014</v>
       </c>
       <c r="AE6" t="n">
-        <v>805873.8747185558</v>
+        <v>898089.7679499725</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.439455132338191e-06</v>
+        <v>2.85182563781267e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.37731481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>728962.4031665029</v>
+        <v>812377.3409737323</v>
       </c>
     </row>
     <row r="7">
@@ -47159,28 +47159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>567.7266938565621</v>
+        <v>624.0333200089808</v>
       </c>
       <c r="AB7" t="n">
-        <v>776.7887088686005</v>
+        <v>853.8299188433685</v>
       </c>
       <c r="AC7" t="n">
-        <v>702.6530847239807</v>
+        <v>772.3415897467742</v>
       </c>
       <c r="AD7" t="n">
-        <v>567726.693856562</v>
+        <v>624033.3200089808</v>
       </c>
       <c r="AE7" t="n">
-        <v>776788.7088686004</v>
+        <v>853829.9188433685</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46356679820702e-06</v>
+        <v>2.899595287140611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.18923611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>702653.0847239806</v>
+        <v>772341.5897467742</v>
       </c>
     </row>
     <row r="8">
@@ -47265,28 +47265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>550.8726131067872</v>
+        <v>607.179239259206</v>
       </c>
       <c r="AB8" t="n">
-        <v>753.728212037193</v>
+        <v>830.7694220119611</v>
       </c>
       <c r="AC8" t="n">
-        <v>681.7934493445521</v>
+        <v>751.4819543673457</v>
       </c>
       <c r="AD8" t="n">
-        <v>550872.6131067872</v>
+        <v>607179.239259206</v>
       </c>
       <c r="AE8" t="n">
-        <v>753728.212037193</v>
+        <v>830769.4220119611</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.478735639645626e-06</v>
+        <v>2.929647554792931e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>681793.4493445521</v>
+        <v>751481.9543673457</v>
       </c>
     </row>
     <row r="9">
@@ -47371,28 +47371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>525.4442244591356</v>
+        <v>592.9267275772053</v>
       </c>
       <c r="AB9" t="n">
-        <v>718.9359688681432</v>
+        <v>811.2685067522092</v>
       </c>
       <c r="AC9" t="n">
-        <v>650.3217290323365</v>
+        <v>733.842179090278</v>
       </c>
       <c r="AD9" t="n">
-        <v>525444.2244591357</v>
+        <v>592926.7275772053</v>
       </c>
       <c r="AE9" t="n">
-        <v>718935.9688681432</v>
+        <v>811268.5067522092</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.489716069642229e-06</v>
+        <v>2.951401808242745e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.99247685185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>650321.7290323365</v>
+        <v>733842.179090278</v>
       </c>
     </row>
     <row r="10">
@@ -47477,28 +47477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>511.2880860406742</v>
+        <v>578.7705891587439</v>
       </c>
       <c r="AB10" t="n">
-        <v>699.5669157592539</v>
+        <v>791.8994536433199</v>
       </c>
       <c r="AC10" t="n">
-        <v>632.8012311675227</v>
+        <v>716.3216812254644</v>
       </c>
       <c r="AD10" t="n">
-        <v>511288.0860406742</v>
+        <v>578770.5891587439</v>
       </c>
       <c r="AE10" t="n">
-        <v>699566.9157592539</v>
+        <v>791899.4536433199</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.497640091289262e-06</v>
+        <v>2.96710075403127e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.93460648148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>632801.2311675227</v>
+        <v>716321.6812254644</v>
       </c>
     </row>
     <row r="11">
@@ -47583,28 +47583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>509.9616832554079</v>
+        <v>577.4441863734776</v>
       </c>
       <c r="AB11" t="n">
-        <v>697.7520729516917</v>
+        <v>790.0846108357576</v>
       </c>
       <c r="AC11" t="n">
-        <v>631.1595944103665</v>
+        <v>714.680044468308</v>
       </c>
       <c r="AD11" t="n">
-        <v>509961.683255408</v>
+        <v>577444.1863734776</v>
       </c>
       <c r="AE11" t="n">
-        <v>697752.0729516917</v>
+        <v>790084.6108357577</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.499111695309426e-06</v>
+        <v>2.970016272534853e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>631159.5944103665</v>
+        <v>714680.044468308</v>
       </c>
     </row>
   </sheetData>
